--- a/src/attributions/attributions_saliency_traj_431.xlsx
+++ b/src/attributions/attributions_saliency_traj_431.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001731960801407695</v>
+        <v>1.011876520351507e-06</v>
       </c>
       <c r="B3" t="n">
-        <v>4.698790144175291e-05</v>
+        <v>0.0002511100610718131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00321199232712388</v>
+        <v>5.527026587515138e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001804825878934935</v>
+        <v>5.828854773426428e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00113647012040019</v>
+        <v>1.50739597302163e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006534990970976651</v>
+        <v>0.000293624383630231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003546733933035284</v>
+        <v>1.271593282581307e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002117955446010455</v>
+        <v>7.995306077646092e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>9.684983524493873e-05</v>
+        <v>3.11965704895556e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002302492968738079</v>
+        <v>5.610641528619453e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.032167347148061e-05</v>
+        <v>0.0001778974401531741</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002803243231028318</v>
+        <v>5.982065704301931e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>4.650003393180668e-05</v>
+        <v>3.020120857399888e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003572872374206781</v>
+        <v>5.209786468185484e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0003834407834801823</v>
+        <v>0.0001811717811506242</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002114145900122821</v>
+        <v>5.199204679229297e-06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00031018175650388</v>
+        <v>4.727080522570759e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0008098163525573909</v>
+        <v>1.003152920020511e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0009961159667000175</v>
+        <v>2.466022124281153e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0007663281867280602</v>
+        <v>1.161040700026206e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001212386705446988</v>
+        <v>4.022840585093945e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0005573185044340789</v>
+        <v>3.973947968916036e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001414984231814742</v>
+        <v>4.918516788166016e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000195836037164554</v>
+        <v>3.328774982946925e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001001371419988573</v>
+        <v>3.312554690637626e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0005634657572954893</v>
+        <v>1.616163353901356e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001155508332885802</v>
+        <v>1.780590173439123e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0006439038552343845</v>
+        <v>5.204394619795494e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0005525590386241674</v>
+        <v>1.401904319209279e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0001738220162224025</v>
+        <v>3.981869667768478e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001693136582616717</v>
+        <v>4.967872519046068e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0003035108093172312</v>
+        <v>3.515363277983852e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001130986260250211</v>
+        <v>5.00259266118519e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.72054772824049e-05</v>
+        <v>1.985292692552321e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.001549696433357894</v>
+        <v>2.171684718632605e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0004756725975312293</v>
+        <v>2.453343040542677e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.000249709642957896</v>
+        <v>1.418255760654574e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0005748503608629107</v>
+        <v>2.072578172374051e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.000235783911193721</v>
+        <v>3.828790431725793e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001604106277227402</v>
+        <v>4.22059019911103e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0006060843588784337</v>
+        <v>2.367853085161187e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0009688506834208965</v>
+        <v>7.786775677232072e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.801960312761366e-05</v>
+        <v>2.451783075230196e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.912917211186141e-05</v>
+        <v>1.398459698975785e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0003273006586823612</v>
+        <v>2.148112253053114e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0005242377519607544</v>
+        <v>2.732489338086452e-05</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001949054189026356</v>
+        <v>8.829925354802981e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.001302242511883378</v>
+        <v>3.860755896312185e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.000148737570270896</v>
+        <v>6.78041615174152e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.00116322748363018</v>
+        <v>0.0001100697918445803</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0005882160039618611</v>
+        <v>0.0001928609854076058</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0004770980740431696</v>
+        <v>3.781348277698271e-05</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.001438357750885189</v>
+        <v>8.462537152809091e-06</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0009430552599951625</v>
+        <v>4.571020690491423e-05</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.7144694942981e-05</v>
+        <v>4.111897578695789e-05</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0002553039230406284</v>
+        <v>0.0001081301961676218</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0009541143663227558</v>
+        <v>4.521685696090572e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00027944624889642</v>
+        <v>6.308226147666574e-05</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.001283827819861472</v>
+        <v>4.281315341359004e-06</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0002793892635963857</v>
+        <v>4.839640678255819e-05</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0004634888609871268</v>
+        <v>2.41806378653564e-06</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.0005382656818255782</v>
+        <v>1.706950206425972e-05</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0001372452243231237</v>
+        <v>1.190451803267933e-05</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0002377498749410734</v>
+        <v>2.610658884805162e-05</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0007880249177105725</v>
+        <v>2.446556754875928e-05</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0005176311242394149</v>
+        <v>4.203064236207865e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0005685960641130805</v>
+        <v>2.48259530053474e-05</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0006133683491498232</v>
+        <v>2.558532651164569e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0004166737198829651</v>
+        <v>1.629146936465986e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001778644364094362</v>
+        <v>1.631403210922144e-05</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0009069342631846666</v>
+        <v>6.415329698938876e-05</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0005290793487802148</v>
+        <v>2.024776404141448e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.001114394515752792</v>
+        <v>2.684494938876014e-05</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.001002422999590635</v>
+        <v>3.541835030773655e-05</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0009985065553337336</v>
+        <v>3.376284075784497e-05</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.001159763080067933</v>
+        <v>5.490480907610618e-05</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0008273647399619222</v>
+        <v>6.42797676846385e-05</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0008659098530188203</v>
+        <v>8.293511928059161e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.000846404698677361</v>
+        <v>3.277787982369773e-05</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0002683758793864399</v>
+        <v>1.106223680835683e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0003889519430231303</v>
+        <v>7.976949746080209e-06</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0002861623070202768</v>
+        <v>1.384491042699665e-05</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.000825648894533515</v>
+        <v>2.477279485901818e-05</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0004220783885102719</v>
+        <v>1.131982207880355e-05</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0001727857161313295</v>
+        <v>7.165986062318552e-06</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0001632736530154943</v>
+        <v>1.400370183546329e-05</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0001388795208185911</v>
+        <v>4.379220627015457e-05</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.000140488613396883</v>
+        <v>3.007288569278899e-06</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.115260576829314e-05</v>
+        <v>2.910528201027773e-05</v>
       </c>
       <c r="CL3" t="n">
-        <v>9.214746387442574e-05</v>
+        <v>1.586472990311449e-06</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0001547371066408232</v>
+        <v>1.480500941397622e-06</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0008030360331758857</v>
+        <v>1.968444121303037e-05</v>
       </c>
       <c r="CO3" t="n">
-        <v>7.42592746973969e-05</v>
+        <v>1.896073990792502e-05</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0001942740200320259</v>
+        <v>5.717820022255182e-05</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0006488041835837066</v>
+        <v>6.208849663380533e-05</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0002773945743683726</v>
+        <v>1.496032382419799e-05</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0005338668124750257</v>
+        <v>6.389000191120431e-07</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0002207041834481061</v>
+        <v>4.109665678697638e-05</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0008283362840302289</v>
+        <v>1.113330927182687e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0002782817755360156</v>
+        <v>6.461127668444533e-07</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0008613286772742867</v>
+        <v>2.676387157407589e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0004287726478651166</v>
+        <v>1.066926051862538e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>8.609175711171702e-05</v>
+        <v>1.323248852713732e-06</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0005062848213128746</v>
+        <v>9.961695468518883e-07</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0001927103876369074</v>
+        <v>4.597341467160732e-05</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0001472466246923432</v>
+        <v>7.874034963606391e-06</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.196711855300236e-05</v>
+        <v>3.870268483296968e-05</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.000257602398050949</v>
+        <v>2.153144123440143e-06</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0001265124592464417</v>
+        <v>4.494724998949096e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.002130311680957675</v>
+        <v>4.598901068675332e-05</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0003432407393120229</v>
+        <v>2.893913551815785e-05</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0001359867892460898</v>
+        <v>6.3071318436414e-05</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0008264529751613736</v>
+        <v>4.698442808148684e-06</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0003478844882920384</v>
+        <v>9.291506103181746e-06</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0005819620564579964</v>
+        <v>1.731155316520017e-05</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0002045553119387478</v>
+        <v>0.0001312979875365272</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0001896519825095311</v>
+        <v>2.450944703014102e-05</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0001228308392455801</v>
+        <v>2.186629717471078e-05</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0002439765085000545</v>
+        <v>2.082502032862976e-05</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0003190756542608142</v>
+        <v>5.400876034400426e-05</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0003359597467351705</v>
+        <v>1.6517769836355e-05</v>
       </c>
       <c r="DR3" t="n">
-        <v>2.787855555652641e-05</v>
+        <v>5.241511098574847e-05</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0004264609015081078</v>
+        <v>1.785432505130302e-05</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0006566127412952483</v>
+        <v>1.290454747504555e-07</v>
       </c>
       <c r="DU3" t="n">
-        <v>9.145732292381581e-06</v>
+        <v>7.466673196176998e-06</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0002891235635615885</v>
+        <v>8.929331670515239e-06</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0003105569921899587</v>
+        <v>1.48622993947356e-05</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0001717556151561439</v>
+        <v>1.594117566128261e-05</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0003188687260262668</v>
+        <v>7.287251719390042e-06</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3.519255551509559e-05</v>
+        <v>1.845571750891395e-05</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0006870938232168555</v>
+        <v>4.830608304473571e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0003554744180291891</v>
+        <v>4.940280632581562e-05</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0001508739369455725</v>
+        <v>7.212476248241728e-06</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.001956875436007977</v>
+        <v>4.078986603417434e-05</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0002896379446610808</v>
+        <v>1.874305780802388e-06</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0005195671110413969</v>
+        <v>1.084890391211957e-05</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.0004351629759185016</v>
+        <v>9.289272384194192e-06</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0007422035560011864</v>
+        <v>2.12416925933212e-05</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0006453345995396376</v>
+        <v>1.968108153960202e-05</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0004014548612758517</v>
+        <v>4.824232746614143e-06</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0004605566209647804</v>
+        <v>7.118987559806556e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.000792794453445822</v>
+        <v>7.805220775480848e-06</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0006068231305107474</v>
+        <v>1.420216631231597e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.000393715308746323</v>
+        <v>6.993641818553442e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0002097990945912898</v>
+        <v>7.518551683460828e-07</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001618733862414956</v>
+        <v>2.05937321879901e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0001014295776258223</v>
+        <v>2.433536064927466e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00100620393641293</v>
+        <v>2.931747803813778e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0002534897357691079</v>
+        <v>4.076919867657125e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.001171378185972571</v>
+        <v>4.274068487575278e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0005648714723065495</v>
+        <v>6.288795702857897e-06</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0005077068344689906</v>
+        <v>5.150189826963469e-05</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0006861421861685812</v>
+        <v>5.518959369510412e-06</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0003255618212278932</v>
+        <v>3.511185695970198e-06</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0006683248211629689</v>
+        <v>2.258668610011227e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0003191593859810382</v>
+        <v>5.871306711924262e-06</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0002520025300327688</v>
+        <v>3.662448534669238e-06</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0005956912063993514</v>
+        <v>7.916213689895812e-06</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0002232695551356301</v>
+        <v>3.702265894389711e-05</v>
       </c>
       <c r="FD3" t="n">
-        <v>6.15696917520836e-05</v>
+        <v>5.024380243412452e-06</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.000147438928252086</v>
+        <v>3.649205609690398e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0002020020328927785</v>
+        <v>2.419493284833152e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0005810516304336488</v>
+        <v>5.858032636751886e-06</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0003510721726343036</v>
+        <v>3.793265932472423e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0007367604412138462</v>
+        <v>3.55269257852342e-05</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001187447924166918</v>
+        <v>3.735306381713599e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.60623385454528e-05</v>
+        <v>1.047552086674841e-05</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.001300529460422695</v>
+        <v>6.335942453006282e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.000421202857978642</v>
+        <v>1.771454117260873e-05</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.001062153605744243</v>
+        <v>1.266246090381173e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0006167274550534785</v>
+        <v>2.449073144816794e-05</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0002682662743609399</v>
+        <v>1.336581954092253e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.001495297416113317</v>
+        <v>0.000111103116068989</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0003440495929680765</v>
+        <v>1.749271541484632e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0005675776628777385</v>
+        <v>2.070629489026032e-05</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0008134645177051425</v>
+        <v>7.747279596515e-06</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0002234816929558292</v>
+        <v>5.144399619894102e-05</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.978522777790204e-05</v>
+        <v>2.328142727492377e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.000368789624189958</v>
+        <v>1.41392411023844e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>6.124161154730245e-05</v>
+        <v>2.723013858485501e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0008980485145002604</v>
+        <v>2.807479904731736e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>7.770337106194347e-05</v>
+        <v>1.003518445941154e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0005177500424906611</v>
+        <v>2.127417974406853e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0006931918323971331</v>
+        <v>1.096832056646235e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0006089130765758455</v>
+        <v>8.693657582625747e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>3.821567588602193e-05</v>
+        <v>2.551965008024126e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>5.528055044123903e-05</v>
+        <v>3.233673487557098e-05</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0002642915642354637</v>
+        <v>2.312106880708598e-05</v>
       </c>
       <c r="GG3" t="n">
-        <v>5.280221375869587e-05</v>
+        <v>2.514634434191976e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01995306834578514</v>
+        <v>2.273508187267126e-10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07602667063474655</v>
+        <v>2.637219609358255e-10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02588323503732681</v>
+        <v>2.378370000943875e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04777879267930984</v>
+        <v>1.524349535486635e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01156327128410339</v>
+        <v>5.01246211204176e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00290179718285799</v>
+        <v>1.437918895064172e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02953419089317322</v>
+        <v>2.234214202534446e-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0115547850728035</v>
+        <v>1.021665863021326e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03776473179459572</v>
+        <v>6.498514226738195e-11</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02736574225127697</v>
+        <v>3.424258099293809e-11</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03831928223371506</v>
+        <v>3.429379280550648e-10</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02172588557004929</v>
+        <v>5.041045358922247e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03485237061977386</v>
+        <v>3.647285806707146e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001522747799754143</v>
+        <v>2.844757485132021e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01448529679328203</v>
+        <v>1.012275041567534e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03520232066512108</v>
+        <v>2.333830351197719e-10</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02374605275690556</v>
+        <v>9.570280123938346e-10</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03968706354498863</v>
+        <v>1.986539405196552e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02479600161314011</v>
+        <v>1.72220127048206e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01117627508938313</v>
+        <v>1.053724468791373e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01258770097047091</v>
+        <v>1.54850285372099e-10</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001315735164098442</v>
+        <v>2.412843813637267e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04622116684913635</v>
+        <v>3.801899350897031e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01419357676059008</v>
+        <v>4.470537828815679e-10</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004121230915188789</v>
+        <v>8.863384332036262e-11</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00724537018686533</v>
+        <v>2.71305089505347e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0008616396225988865</v>
+        <v>9.116719879020962e-11</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01519108004868031</v>
+        <v>2.291458967018656e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.005950488150119781</v>
+        <v>2.893342683496503e-11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0007801628671586514</v>
+        <v>1.404553695572019e-10</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.00994652695953846</v>
+        <v>2.980196367463606e-10</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02631036005914211</v>
+        <v>2.74687134149687e-10</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.009108583442866802</v>
+        <v>7.40533953602629e-11</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.006185451522469521</v>
+        <v>2.869703086272324e-11</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01303444523364305</v>
+        <v>1.493734441693206e-10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.006719449535012245</v>
+        <v>1.118961520663042e-11</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.008321858942508698</v>
+        <v>1.246343861449617e-10</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01815686747431755</v>
+        <v>1.635759305784745e-10</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01058684289455414</v>
+        <v>4.26982477153004e-11</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002616964746266603</v>
+        <v>3.239346291206147e-12</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01702062413096428</v>
+        <v>2.243774332999493e-10</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.03376936167478561</v>
+        <v>3.993368968835398e-10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.007259341888129711</v>
+        <v>9.014950591579307e-11</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.002382867038249969</v>
+        <v>4.358350486066698e-12</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01035199780017138</v>
+        <v>2.441694901822444e-10</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0075771096162498</v>
+        <v>9.474540596521308e-11</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03102896176278591</v>
+        <v>3.643197965530476e-10</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02233352512121201</v>
+        <v>3.433425488363895e-10</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02036541886627674</v>
+        <v>3.148841742905972e-10</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01562893576920033</v>
+        <v>9.016571933528894e-10</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02321557700634003</v>
+        <v>1.125516790878578e-09</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.008351245895028114</v>
+        <v>7.398651136192314e-11</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.01803828775882721</v>
+        <v>1.88221077612738e-10</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.02580094896256924</v>
+        <v>5.70636760066634e-10</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.008738018572330475</v>
+        <v>3.197767883822422e-10</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01808773726224899</v>
+        <v>1.142293898359625e-10</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.009095517918467522</v>
+        <v>6.8899878857831e-11</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.008879420347511768</v>
+        <v>4.080033255693394e-10</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0370376780629158</v>
+        <v>1.691344980736531e-10</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.02241027913987637</v>
+        <v>2.412831046072483e-10</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01901349611580372</v>
+        <v>2.180664676609823e-10</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.00338318501599133</v>
+        <v>3.514041002627977e-10</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.00484358798712492</v>
+        <v>3.308948948177459e-10</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.01316919270902872</v>
+        <v>1.653548270530436e-10</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01969743147492409</v>
+        <v>3.822229199812455e-10</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0002506746095605195</v>
+        <v>7.101040588874952e-11</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.01630205288529396</v>
+        <v>1.252149495201138e-10</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01044532656669617</v>
+        <v>2.267287607660151e-10</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.009584799408912659</v>
+        <v>8.177250543361936e-12</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0004319545114412904</v>
+        <v>1.81928014320043e-10</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0006818948313593864</v>
+        <v>3.753746480317233e-10</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.02322900108993053</v>
+        <v>2.585145292277602e-11</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0008543309522792697</v>
+        <v>5.312688830527712e-11</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0248324777930975</v>
+        <v>9.474239448525879e-11</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.01737909205257893</v>
+        <v>1.016013939647564e-10</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.009412144310772419</v>
+        <v>1.332696730749205e-10</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.003787772729992867</v>
+        <v>7.048377992369126e-10</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.01288204081356525</v>
+        <v>7.782098299102813e-10</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01809032820165157</v>
+        <v>1.168216738622885e-11</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.001254832837730646</v>
+        <v>2.603712523363555e-10</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03736764192581177</v>
+        <v>1.12568086796383e-10</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.005784349516034126</v>
+        <v>2.034093206371157e-11</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.00381524721160531</v>
+        <v>1.810731703466573e-10</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0003209682181477547</v>
+        <v>1.108516230197143e-11</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.00570550886914134</v>
+        <v>2.71969356757662e-11</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.001431507989764214</v>
+        <v>5.567799693517728e-12</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.002745392732322216</v>
+        <v>2.391860043360339e-10</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.004710258450359106</v>
+        <v>5.891130638868702e-11</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.002512019593268633</v>
+        <v>1.495344958968303e-10</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.003314703935757279</v>
+        <v>1.694085496883879e-11</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.009376791305840015</v>
+        <v>4.16504677969165e-11</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0128858033567667</v>
+        <v>3.256253600092407e-10</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.01015095319598913</v>
+        <v>3.536423584526993e-11</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.003577821422368288</v>
+        <v>5.617826204229459e-10</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.005487244576215744</v>
+        <v>3.968600170711767e-10</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.001476493664085865</v>
+        <v>1.542571903545564e-10</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.01734587922692299</v>
+        <v>4.208940834748987e-11</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.01866146735846996</v>
+        <v>4.873387804416041e-11</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.00403226912021637</v>
+        <v>2.528944276214418e-10</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.007234354969114065</v>
+        <v>6.856662460030805e-11</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.006539592053741217</v>
+        <v>1.850548048132339e-10</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0004761763848364353</v>
+        <v>8.831940387366011e-12</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.009081762284040451</v>
+        <v>4.479593779249669e-13</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006912612356245518</v>
+        <v>6.007039310418349e-11</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0004906677640974522</v>
+        <v>2.913636554247034e-10</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.765251211822033e-06</v>
+        <v>5.479572698363633e-11</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0008730664849281311</v>
+        <v>2.528881548613526e-10</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.00448321457952261</v>
+        <v>5.854421114559472e-11</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.01471113134175539</v>
+        <v>1.883212752407104e-10</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.01802965253591537</v>
+        <v>4.04796057784651e-11</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.03290627896785736</v>
+        <v>2.915124808211544e-10</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.01895751990377903</v>
+        <v>4.923634278064526e-10</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.004164539277553558</v>
+        <v>1.695644180621514e-10</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.03502278029918671</v>
+        <v>2.413335364881419e-10</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01757730729877949</v>
+        <v>5.246456394325527e-11</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.01131212152540684</v>
+        <v>2.136071181046972e-10</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.01262262277305126</v>
+        <v>1.349123035510047e-10</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.006532085128128529</v>
+        <v>1.386652875856598e-10</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.002283163368701935</v>
+        <v>9.201119033352967e-11</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02279319614171982</v>
+        <v>1.475539829209893e-10</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.005621339194476604</v>
+        <v>5.31904346956491e-11</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.01526364963501692</v>
+        <v>1.948627370573774e-11</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.00634161289781332</v>
+        <v>9.460414396311734e-11</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.001070611644536257</v>
+        <v>1.762137311067669e-11</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.001957059139385819</v>
+        <v>2.008934962827169e-10</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.01105906069278717</v>
+        <v>2.174983804170694e-11</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.003464323002845049</v>
+        <v>1.341521060904682e-10</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.01219998300075531</v>
+        <v>2.094650668194031e-11</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.005512339528650045</v>
+        <v>3.134057735554308e-10</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.01625845953822136</v>
+        <v>1.923357306754525e-12</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.002409892389550805</v>
+        <v>9.360259095592127e-11</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.006883428432047367</v>
+        <v>1.498147994549726e-10</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.01082034781575203</v>
+        <v>2.694456463503414e-11</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02181950397789478</v>
+        <v>1.266011878664486e-10</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.01593919843435287</v>
+        <v>4.651258891930077e-11</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.003294104244560003</v>
+        <v>3.875566881306192e-11</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.02066724002361298</v>
+        <v>2.098664575456155e-10</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.004258742555975914</v>
+        <v>3.888019420306144e-11</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.008843488059937954</v>
+        <v>1.806971239304289e-10</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.01513838022947311</v>
+        <v>1.429940194030976e-10</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01476118247956038</v>
+        <v>9.716199372844514e-11</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.003344722557812929</v>
+        <v>4.53280191159422e-11</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.001777824945747852</v>
+        <v>3.796794476040866e-11</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.01117279194295406</v>
+        <v>1.046198544463195e-10</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.005885643884539604</v>
+        <v>2.280646504981831e-10</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.001459264662116766</v>
+        <v>2.751173594495171e-11</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.01031486690044403</v>
+        <v>2.969523238416372e-11</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.008553552441298962</v>
+        <v>5.013374090867551e-11</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.009139655157923698</v>
+        <v>1.090038059814447e-10</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.04146073758602142</v>
+        <v>2.00578220699299e-10</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.006322771310806274</v>
+        <v>1.002442434616668e-10</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.00132278201635927</v>
+        <v>2.531217457857338e-10</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.001742817927151918</v>
+        <v>1.553634998430198e-11</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.004258847795426846</v>
+        <v>6.219782328065193e-11</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.008164477534592152</v>
+        <v>1.620522466216912e-10</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.004030758980661631</v>
+        <v>6.199972479858928e-11</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.002793156309053302</v>
+        <v>1.328028659264291e-11</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.001624279655516148</v>
+        <v>9.746922019493454e-12</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.003014188259840012</v>
+        <v>2.365771467616185e-10</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.002529065124690533</v>
+        <v>1.919520965787402e-12</v>
       </c>
       <c r="FE4" t="n">
-        <v>6.074894918128848e-05</v>
+        <v>2.621399486368858e-10</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.008560067974030972</v>
+        <v>8.897151765330236e-11</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.006440736819058657</v>
+        <v>8.843636239985742e-11</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01329698972404003</v>
+        <v>1.885180345162496e-10</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.008252323605120182</v>
+        <v>2.690504208313627e-10</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0145524051040411</v>
+        <v>1.075939823347305e-10</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.004993543494492769</v>
+        <v>2.869755266754481e-10</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.02881169691681862</v>
+        <v>3.831742700910468e-10</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.001813866663724184</v>
+        <v>1.041857572436911e-12</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.02509067952632904</v>
+        <v>1.448733633058197e-10</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.004537153523415327</v>
+        <v>8.74304517672897e-11</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.006429954897612333</v>
+        <v>1.422106876702856e-11</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0001653339713811874</v>
+        <v>4.548074694632476e-10</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.008769632317125797</v>
+        <v>8.157124281593653e-12</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.001935307402163744</v>
+        <v>2.482835048667198e-10</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.04790833219885826</v>
+        <v>3.230818113042488e-10</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.01736787334084511</v>
+        <v>3.622684097148721e-10</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.04591744393110275</v>
+        <v>7.048270994625128e-11</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.008804146200418472</v>
+        <v>1.520565617862957e-10</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.006679429672658443</v>
+        <v>8.065147161229191e-11</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.01439113914966583</v>
+        <v>4.954200244489115e-12</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0008204663172364235</v>
+        <v>1.878900368623704e-10</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01139003038406372</v>
+        <v>5.711017422860287e-11</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.01200796570628881</v>
+        <v>3.132548109796573e-10</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.02134933322668076</v>
+        <v>4.862473756972463e-10</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.01539319753646851</v>
+        <v>4.069829195874064e-11</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.01417004782706499</v>
+        <v>3.024664130268917e-10</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.02192704379558563</v>
+        <v>8.407395613030388e-11</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.01342831458896399</v>
+        <v>7.592847878212794e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0003249814035370946</v>
+        <v>0.003612342989072204</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001123160822317004</v>
+        <v>0.001840982236899436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001703941845335066</v>
+        <v>0.00399397499859333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002647049957886338</v>
+        <v>0.005461623892188072</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002057082718238235</v>
+        <v>0.0008948013419285417</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01424645073711872</v>
+        <v>0.000941765436436981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006134576979093254</v>
+        <v>0.0001582265249453485</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003414122387766838</v>
+        <v>0.002175670117139816</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002444357145577669</v>
+        <v>0.0003829143824987113</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008621287415735424</v>
+        <v>0.004935326986014843</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001238221186213195</v>
+        <v>0.002295063575729728</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003438481944613159</v>
+        <v>0.002985646715387702</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002945310901850462</v>
+        <v>0.005411553662270308</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001063551753759384</v>
+        <v>0.002603028435260057</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01376304402947426</v>
+        <v>0.0003677151398733258</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0008025870192795992</v>
+        <v>0.001845266902819276</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002643779618665576</v>
+        <v>0.002432157285511494</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0003939389425795525</v>
+        <v>0.001416730927303433</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003430803073570132</v>
+        <v>0.001602310803718865</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001290060696192086</v>
+        <v>0.0003577343886718154</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0008257913868874311</v>
+        <v>0.0001349475205643103</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0008670593961142004</v>
+        <v>0.0003535111609380692</v>
       </c>
       <c r="W5" t="n">
-        <v>0.000343480525771156</v>
+        <v>0.002544644987210631</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003436887403950095</v>
+        <v>0.0003779677499551326</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001027502003125846</v>
+        <v>0.0002785962133202702</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001532402471639216</v>
+        <v>0.003470602445304394</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0004771763342432678</v>
+        <v>0.0001365561329293996</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0008990698261186481</v>
+        <v>0.0002946184540633112</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0002060971164610237</v>
+        <v>0.001411896664649248</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001234466908499599</v>
+        <v>0.000113229158159811</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002506036311388016</v>
+        <v>0.0005054940702393651</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.006216750480234623</v>
+        <v>0.0001502459490438923</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001522751990705729</v>
+        <v>0.0003644372918643057</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0003055372217204422</v>
+        <v>0.0005778743652626872</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001390987541526556</v>
+        <v>0.0008810579311102629</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001300935982726514</v>
+        <v>0.0004095965996384621</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0006623424123972654</v>
+        <v>0.0002051341580227017</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0002304986701346934</v>
+        <v>0.001077129156328738</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001793313422240317</v>
+        <v>0.0001730679941829294</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001656603650189936</v>
+        <v>0.000604055414441973</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0005032824701629579</v>
+        <v>0.000246436073211953</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001984742237254977</v>
+        <v>0.0003396242391318083</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0004046419635415077</v>
+        <v>0.0009131194092333317</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.818315649870783e-05</v>
+        <v>0.0002842878457158804</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0014776875032112</v>
+        <v>0.0001926019467646256</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0004784734919667244</v>
+        <v>0.0002090171910822392</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008396694902330637</v>
+        <v>0.00153340573888272</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0001054448439390399</v>
+        <v>0.002633955096825957</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0006925248308107257</v>
+        <v>0.004518758971244097</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0002242147456854582</v>
+        <v>0.0003065929922740906</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.007049697451293468</v>
+        <v>0.001108634984120727</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0006638979539275169</v>
+        <v>0.0006841336726211011</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0007727342308498919</v>
+        <v>0.002505290089175105</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0007527561392635107</v>
+        <v>0.001044144970364869</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0001444129011360928</v>
+        <v>0.004639721009880304</v>
       </c>
       <c r="BD5" t="n">
-        <v>9.720570233184844e-05</v>
+        <v>0.001492271665483713</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001555984956212342</v>
+        <v>8.521636482328176e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002064959146082401</v>
+        <v>0.0009702524403110147</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0003829349589068443</v>
+        <v>0.003328041639178991</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002079857978969812</v>
+        <v>0.0005362302181310952</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0003774728975258768</v>
+        <v>0.002840403001755476</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003398220520466566</v>
+        <v>0.004918910562992096</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0008770295535214245</v>
+        <v>0.0002785791293717921</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.337529829470441e-05</v>
+        <v>0.0008470146567560732</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.392880221828818e-05</v>
+        <v>0.00102606660220772</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.000214849496842362</v>
+        <v>0.001486157882027328</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0004464195808395743</v>
+        <v>0.001037088688462973</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.002278582891449332</v>
+        <v>0.002214370062574744</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.002854955848306417</v>
+        <v>0.0005643414915539324</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0001357721484964713</v>
+        <v>0.001428563380613923</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0005503746797330678</v>
+        <v>0.0007353530381806195</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001182872452773154</v>
+        <v>0.0008292952552437782</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0005240875179879367</v>
+        <v>0.0005117499968037009</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.203572901431471e-05</v>
+        <v>0.001539550023153424</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001081548631191254</v>
+        <v>0.001109508564695716</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002538566943258047</v>
+        <v>0.002036664867773652</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0001797879522200674</v>
+        <v>0.001024712924845517</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.005528148263692856</v>
+        <v>2.176728230551817e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0005231018294580281</v>
+        <v>0.00103622511960566</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0001776839490048587</v>
+        <v>0.003783388761803508</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.002838170155882835</v>
+        <v>0.001517244148999453</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0002467799349687994</v>
+        <v>0.0008127366891130805</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0003175924066454172</v>
+        <v>0.0009006640175357461</v>
       </c>
       <c r="CF5" t="n">
-        <v>9.868577035376802e-05</v>
+        <v>0.0009212256991304457</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0004064823733642697</v>
+        <v>0.00113995629362762</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0002524019218981266</v>
+        <v>0.0006857533007860184</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.002800954971462488</v>
+        <v>0.0005412035970948637</v>
       </c>
       <c r="CJ5" t="n">
-        <v>7.279452802322339e-06</v>
+        <v>0.000559788488317281</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.000615693221334368</v>
+        <v>0.0008566770702600479</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002173545653931797</v>
+        <v>0.0007677740650251508</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.000310768693452701</v>
+        <v>0.002170360647141933</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0002522933064028621</v>
+        <v>0.0007884387159720063</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.00108931481372565</v>
+        <v>0.0002554228994995356</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.001364399795420468</v>
+        <v>0.001128375064581633</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001425835769623518</v>
+        <v>0.0008138670236803591</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001371315680444241</v>
+        <v>0.0007435812149196863</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.00059511634754017</v>
+        <v>0.0004078431229572743</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0001326705969404429</v>
+        <v>0.0008601672016084194</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0005015558563172817</v>
+        <v>0.001019747345708311</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0004140336532145739</v>
+        <v>0.0007569427834823728</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0002890725445467979</v>
+        <v>0.0005188635550439358</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0002736456808634102</v>
+        <v>0.0003799686674028635</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0003362105053383857</v>
+        <v>0.0008145645260810852</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0004598686937242746</v>
+        <v>0.0005587047198787332</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00278439954854548</v>
+        <v>0.0004362317849881947</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0001952927850652486</v>
+        <v>0.0001106274430640042</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.001018987037241459</v>
+        <v>0.0006998652825132012</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0003288830630481243</v>
+        <v>0.0009722859249450266</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.001871978165581822</v>
+        <v>4.687381442636251e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.001196192111819983</v>
+        <v>0.004201879259198904</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0005169591167941689</v>
+        <v>0.0008913470082916319</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001066786702722311</v>
+        <v>0.001936646411195397</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.000609120586887002</v>
+        <v>0.001382234506309032</v>
       </c>
       <c r="DJ5" t="n">
-        <v>8.359883213415742e-05</v>
+        <v>0.003412523306906223</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.001497921766713262</v>
+        <v>0.003782617626711726</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001042819931171834</v>
+        <v>2.828688593581319e-06</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001046464167302474</v>
+        <v>0.0009106856305152178</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0007827253430150449</v>
+        <v>0.0001926503027789295</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0005321217468008399</v>
+        <v>0.0005699479952454567</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.000656565185636282</v>
+        <v>0.001053008018061519</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0004851037811022252</v>
+        <v>0.0001003772849799134</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.001840898534283042</v>
+        <v>0.001725738286040723</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0005173766985535622</v>
+        <v>0.000219051114981994</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0004160677490290254</v>
+        <v>0.0007735998369753361</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0007677648100070655</v>
+        <v>0.0006588787073269486</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.00111378263682127</v>
+        <v>0.0008912214543670416</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0003221733786631376</v>
+        <v>0.0003862731682602316</v>
       </c>
       <c r="DX5" t="n">
-        <v>3.178601036779583e-05</v>
+        <v>0.0001541816891403869</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.001002249657176435</v>
+        <v>0.0007659962284378707</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001210981281474233</v>
+        <v>0.0008790125139057636</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001478122663684189</v>
+        <v>0.0001819617173168808</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001315246219746768</v>
+        <v>0.002364482032135129</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.000249613425694406</v>
+        <v>0.0002041210245806724</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0008432439644820988</v>
+        <v>0.001356647815555334</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.000514858984388411</v>
+        <v>0.001439508399926126</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0006217003683559597</v>
+        <v>0.0007569307927042246</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001032214728184044</v>
+        <v>0.00040996796451509</v>
       </c>
       <c r="EH5" t="n">
-        <v>6.818700057920069e-05</v>
+        <v>0.001001246157102287</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0006678946083411574</v>
+        <v>0.001540538971312344</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001570552703924477</v>
+        <v>0.0001831853296607733</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.003639462869614363</v>
+        <v>2.108910848619416e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0004455464077182114</v>
+        <v>0.0003835102543234825</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001178488717414439</v>
+        <v>0.000826245523057878</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.001149879535660148</v>
+        <v>0.001333388616330922</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0002907640591729432</v>
+        <v>0.0006641207728534937</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0001822830381570384</v>
+        <v>0.0002024931600317359</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0002264591021230444</v>
+        <v>0.001117983018048108</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0006089576054364443</v>
+        <v>0.0007326772902160883</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001487391535192728</v>
+        <v>0.0002552925725467503</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.001518710283562541</v>
+        <v>3.744874993572012e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.000981469638645649</v>
+        <v>7.920827192720026e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0002123305603163317</v>
+        <v>0.00312290689907968</v>
       </c>
       <c r="EW5" t="n">
-        <v>8.368981070816517e-05</v>
+        <v>0.0009772460907697678</v>
       </c>
       <c r="EX5" t="n">
-        <v>4.069384522153996e-05</v>
+        <v>0.0006501569878309965</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0002942865248769522</v>
+        <v>0.0006732683395966887</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0003802782157436013</v>
+        <v>0.0006984809879213572</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0002601189771667123</v>
+        <v>0.0009336633956991136</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0004669268964789808</v>
+        <v>0.0004101575468666852</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.002511747879907489</v>
+        <v>0.0006215039175003767</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0003257041389588267</v>
+        <v>0.0002334385353606194</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001013352652080357</v>
+        <v>0.0006519975140690804</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0003256299823988229</v>
+        <v>0.001138007384724915</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0005502987769432366</v>
+        <v>0.0002829140285030007</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0007311925292015076</v>
+        <v>0.0008570585632696748</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0005052393535152078</v>
+        <v>0.0005231237737461925</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0008744155638851225</v>
+        <v>0.001287636696361005</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.000500265508890152</v>
+        <v>0.000817715423181653</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001615325221791863</v>
+        <v>0.001156199024990201</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0002875999489333481</v>
+        <v>0.0003672209859360009</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0009035914554260671</v>
+        <v>0.0001208021785714664</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0007403187919408083</v>
+        <v>0.001874469104222953</v>
       </c>
       <c r="FP5" t="n">
-        <v>1.047691330313683e-05</v>
+        <v>0.001710722455754876</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.001142042456194758</v>
+        <v>0.00174214446451515</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0001029427367029712</v>
+        <v>0.003411841578781605</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0005537504330277443</v>
+        <v>0.002000667853280902</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.003011655528098345</v>
+        <v>0.0008770973654463887</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.005234996788203716</v>
+        <v>0.001789228990674019</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001069025020115077</v>
+        <v>5.193964170757681e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>5.031342152506113e-05</v>
+        <v>0.0005463939742185175</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0006110926624387503</v>
+        <v>0.001530876383185387</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0003543386410456151</v>
+        <v>0.0007330211228691041</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0002318701444892213</v>
+        <v>0.0005293359281495214</v>
       </c>
       <c r="GA5" t="n">
-        <v>3.681564703583717e-05</v>
+        <v>0.001310971798375249</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0002632387913763523</v>
+        <v>0.001224699430167675</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0001349126105196774</v>
+        <v>0.002661708509549499</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001430511008948088</v>
+        <v>0.00214392296038568</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0002631516254041344</v>
+        <v>0.0002140473516192287</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002722429344430566</v>
+        <v>0.0007512457668781281</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0008079701801761985</v>
+        <v>0.000487363402498886</v>
       </c>
     </row>
     <row r="6">
@@ -3849,5123 +3849,5123 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02853183820843697</v>
+        <v>0.0005528159090317786</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008642002008855343</v>
+        <v>0.009762567467987537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002063197549432516</v>
+        <v>0.0008330729906447232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003216117154806852</v>
+        <v>0.00641211774200201</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01164539903402328</v>
+        <v>0.006284113973379135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05777338892221451</v>
+        <v>0.005126436706632376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01122923009097576</v>
+        <v>0.001373717677779496</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02908086590468884</v>
+        <v>0.001362519804388285</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01820469461381435</v>
+        <v>0.001549969078041613</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02537105605006218</v>
+        <v>9.350714390166104e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001380597590468824</v>
+        <v>0.007836278527975082</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002521552611142397</v>
+        <v>0.00106665666680783</v>
       </c>
       <c r="M7" t="n">
-        <v>0.007663181982934475</v>
+        <v>0.006135539151728153</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01003773882985115</v>
+        <v>0.007412026636302471</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06017573922872543</v>
+        <v>0.007509549614042044</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01353118661791086</v>
+        <v>0.0004072845913469791</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01630850695073605</v>
+        <v>0.00146266573574394</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01838087104260921</v>
+        <v>0.00161795224994421</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01560139562934637</v>
+        <v>0.0008669422240927815</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001594853238202631</v>
+        <v>0.00256852270103991</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004387013148516417</v>
+        <v>0.0001270211942028254</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00952420849353075</v>
+        <v>0.000285015266854316</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007448485121130943</v>
+        <v>0.001763950102031231</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01331555005162954</v>
+        <v>0.002622355474159122</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004938643425703049</v>
+        <v>0.0009363463614135981</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.005977326072752476</v>
+        <v>0.0001651784405112267</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001053228159435093</v>
+        <v>0.0006355125806294382</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.006131533533334732</v>
+        <v>0.001388519071042538</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.002896349877119064</v>
+        <v>0.002152820350602269</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.006406109314411879</v>
+        <v>0.001475569792091846</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0009143645875155926</v>
+        <v>0.001578835537657142</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01642710901796818</v>
+        <v>0.001855801674537361</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.007282276637852192</v>
+        <v>0.002318391343578696</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.01020030584186316</v>
+        <v>0.001698572770692408</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.005385808646678925</v>
+        <v>0.0004372821422293782</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.002103299833834171</v>
+        <v>2.854660851880908e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.004157393239438534</v>
+        <v>0.0005361663061194122</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002626179018989205</v>
+        <v>0.002448146929964423</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02016692981123924</v>
+        <v>5.815312033519149e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003811317263171077</v>
+        <v>0.0002302908105775714</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.005042605102062225</v>
+        <v>6.392753857653588e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.004257147200405598</v>
+        <v>0.0005128612974658608</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.002693259622901678</v>
+        <v>0.001217215671204031</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.005209261085838079</v>
+        <v>0.0007145541021600366</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.005505438428372145</v>
+        <v>0.0006351916235871613</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01662917993962765</v>
+        <v>0.001995445927605033</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.005144018679857254</v>
+        <v>0.007228387519717216</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.005249490961432457</v>
+        <v>8.246563083957881e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.01289227046072483</v>
+        <v>0.002281544497236609</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.00278226425871253</v>
+        <v>0.001773629919625819</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0333169512450695</v>
+        <v>0.0008966709719970822</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.004505130462348461</v>
+        <v>0.002465762430801988</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01113597862422466</v>
+        <v>0.0005254622083157301</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.005272171460092068</v>
+        <v>0.001243089442141354</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.003282721154391766</v>
+        <v>0.0005572455120272934</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.004754572175443172</v>
+        <v>0.002534419763833284</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01237337291240692</v>
+        <v>0.00167192961089313</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.004724388476461172</v>
+        <v>0.001633196836337447</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.001584925223141909</v>
+        <v>0.0066493796184659</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.002871655859053135</v>
+        <v>0.002266791881993413</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0006963419727981091</v>
+        <v>0.003173732897266746</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.005941198673099279</v>
+        <v>0.001788226654753089</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.00441312650218606</v>
+        <v>0.002120110904797912</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.003160836175084114</v>
+        <v>0.0005063994321972132</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.006505564786493778</v>
+        <v>0.0009100180468522012</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0007706925389356911</v>
+        <v>0.0009759398526512086</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.006895578000694513</v>
+        <v>0.001125335926190019</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.01140872575342655</v>
+        <v>0.001322707976214588</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.009487325325608253</v>
+        <v>0.002037976402789354</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.005200741812586784</v>
+        <v>0.001680997549556196</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.006390964612364769</v>
+        <v>0.0002009303425438702</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.003402574919164181</v>
+        <v>0.0005151905352249742</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.01470165140926838</v>
+        <v>0.001224374515004456</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0007755555561743677</v>
+        <v>0.003839875804260373</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.007528063841164112</v>
+        <v>0.001735886209644377</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.007048062980175018</v>
+        <v>0.00197348278015852</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.003797926008701324</v>
+        <v>0.0001753219985403121</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.02717416360974312</v>
+        <v>0.0002233368577435613</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0006004078895784914</v>
+        <v>0.0002470390172675252</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.009321974590420723</v>
+        <v>0.0004725612816400826</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.00729617103934288</v>
+        <v>6.794289220124483e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.004678457044064999</v>
+        <v>0.0001308245409745723</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.002723239362239838</v>
+        <v>0.001551868976093829</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.001438282430171967</v>
+        <v>0.0002888809831347317</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.006452435627579689</v>
+        <v>0.0005621210439130664</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.003938538953661919</v>
+        <v>5.319710180629045e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.009669621475040913</v>
+        <v>0.0009564050706103444</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.004954923409968615</v>
+        <v>0.0008029872551560402</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.00361639866605401</v>
+        <v>0.0001178361126221716</v>
       </c>
       <c r="CL7" t="n">
-        <v>6.953498814254999e-05</v>
+        <v>0.0001216279633808881</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.01049646362662315</v>
+        <v>0.00164824805688113</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.00477258488535881</v>
+        <v>0.00105784647166729</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.009249803610146046</v>
+        <v>0.000210873520700261</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.001954453298822045</v>
+        <v>0.0009534770506434143</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.01278628129512072</v>
+        <v>0.0005164432805031538</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.004741470329463482</v>
+        <v>0.001338883186690509</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.006827947217971087</v>
+        <v>0.002064567757770419</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.003829909022897482</v>
+        <v>0.002817859873175621</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.01259537041187286</v>
+        <v>0.0002777845948003232</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.005596929229795933</v>
+        <v>5.555638927035034e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002146734856069088</v>
+        <v>0.001034120912663639</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.001607981394045055</v>
+        <v>0.0006752763292752206</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.005299350712448359</v>
+        <v>0.0009596961317583919</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.005897343158721924</v>
+        <v>0.000272915989626199</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01152394525706768</v>
+        <v>0.001135159283876419</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.004622571635991335</v>
+        <v>0.0005495019722729921</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.005602410994470119</v>
+        <v>0.0002095616655424237</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.000791157886851579</v>
+        <v>0.0003486763162072748</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.01067251525819302</v>
+        <v>0.001432709395885468</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.001123255351558328</v>
+        <v>0.002259104046970606</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01473460718989372</v>
+        <v>0.00186296587344259</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0003243015380576253</v>
+        <v>0.0002085271989926696</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001074919477105141</v>
+        <v>0.0005345277022570372</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.01524234376847744</v>
+        <v>0.0001819635508581996</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.001336832996457815</v>
+        <v>0.001962620532140136</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.003175330115482211</v>
+        <v>0.0005260222824290395</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.01782363653182983</v>
+        <v>0.0005433454061858356</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.009490231983363628</v>
+        <v>9.951909305527806e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0009101004689000547</v>
+        <v>0.0004334335390012711</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0008640247397124767</v>
+        <v>1.966935815289617e-05</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.008262044750154018</v>
+        <v>0.003632671665400267</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.002047447022050619</v>
+        <v>0.001171520794741809</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.003240952268242836</v>
+        <v>0.002654379466548562</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.003811637405306101</v>
+        <v>0.00154155632480979</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0021927859634161</v>
+        <v>0.0001354900741716847</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.003415158949792385</v>
+        <v>0.0001584280980750918</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.00165541551541537</v>
+        <v>0.0005886454600840807</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.003794363001361489</v>
+        <v>0.001292012864723802</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.004547300282865763</v>
+        <v>0.001447985181584954</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.005175161175429821</v>
+        <v>0.002731095999479294</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.00546535337343812</v>
+        <v>0.001870266743935645</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.009886689484119415</v>
+        <v>0.001791853224858642</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.006041002459824085</v>
+        <v>0.0008384098182432353</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0001162303378805518</v>
+        <v>0.0002553578233346343</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.00475714635103941</v>
+        <v>0.0009820149280130863</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.004008470103144646</v>
+        <v>0.0009161531925201416</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.007038524374365807</v>
+        <v>0.0009782419074326754</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001442026346921921</v>
+        <v>5.481277185026556e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.007514867465943098</v>
+        <v>0.001034907763823867</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.008160262368619442</v>
+        <v>0.0004038162005599588</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.01662264950573444</v>
+        <v>0.0002980403951369226</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.001826695166528225</v>
+        <v>0.001758407568559051</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0003451163647696376</v>
+        <v>0.0006361888954415917</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.002305684378370643</v>
+        <v>0.0004605380527209491</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.003134798724204302</v>
+        <v>0.0003808183828368783</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.005853134207427502</v>
+        <v>0.0004661198181565851</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01810786500573158</v>
+        <v>0.001448355382308364</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.002081284066662192</v>
+        <v>0.001340825809165835</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.003157743718475103</v>
+        <v>0.0005061597330495715</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.003258625278249383</v>
+        <v>0.002066373126581311</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.005979219917207956</v>
+        <v>0.00147777353413403</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.00320043507963419</v>
+        <v>0.000446677760919556</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0001893048174679279</v>
+        <v>0.001742601743899286</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.002844369038939476</v>
+        <v>0.0001274399401154369</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.002663264516741037</v>
+        <v>0.001098906854167581</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.002265395596623421</v>
+        <v>0.0003269515582360327</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.005933952983468771</v>
+        <v>0.0008329542470164597</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.005513095296919346</v>
+        <v>0.0001403018686687574</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.01087358966469765</v>
+        <v>0.001247900305315852</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.005787608679383993</v>
+        <v>0.0009686927078291774</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.004887448623776436</v>
+        <v>0.0001808603119570762</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.001321370946243405</v>
+        <v>6.130372639745474e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.004583732225000858</v>
+        <v>0.0004271101206541061</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.000475825770990923</v>
+        <v>0.0006933737313374877</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.006363904103636742</v>
+        <v>0.001124246628023684</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.003421863075345755</v>
+        <v>0.001846995903179049</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.006679835729300976</v>
+        <v>0.001135703991167247</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.001507864682935178</v>
+        <v>1.571199391037226e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.008412718772888184</v>
+        <v>0.0008631253731437027</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01360257714986801</v>
+        <v>4.121859092265368e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.005964502226561308</v>
+        <v>0.0007680700509808958</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01621521450579166</v>
+        <v>0.0002339118509553373</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.002510400721803308</v>
+        <v>0.003471472533419728</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.008572637103497982</v>
+        <v>0.001228617737069726</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.003236451186239719</v>
+        <v>0.001651680795475841</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0008176993578672409</v>
+        <v>0.001461536041460931</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.02842253446578979</v>
+        <v>0.002010469557717443</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.003229618538171053</v>
+        <v>0.002835682593286037</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.009432273916900158</v>
+        <v>0.0008070717449299991</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.001056689070537686</v>
+        <v>0.001155569218099117</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.006023988593369722</v>
+        <v>0.0001822917256504297</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001757587189786136</v>
+        <v>0.0004076186160091311</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.004880035296082497</v>
+        <v>0.002031585434451699</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.001375883119180799</v>
+        <v>0.0004358796868473291</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.008925409987568855</v>
+        <v>0.0001676764222793281</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.006636224687099457</v>
+        <v>0.001082819188013673</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.004816310945898294</v>
+        <v>0.001639291411265731</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.007107395678758621</v>
+        <v>0.0016230926848948</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0009971607942134142</v>
+        <v>0.001280793454498053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002921000588685274</v>
+        <v>0.0003381061833351851</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06799960136413574</v>
+        <v>0.009910088032484055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01546718925237656</v>
+        <v>0.001199188875034451</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02873028814792633</v>
+        <v>0.006047922652214766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01736549288034439</v>
+        <v>0.003003757214173675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1662917733192444</v>
+        <v>0.002898788312450051</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009931076318025589</v>
+        <v>0.0009682266972959042</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02096526324748993</v>
+        <v>0.0009082454489544034</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01933185011148453</v>
+        <v>0.001191870658658445</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002017762046307325</v>
+        <v>0.001226635999046266</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07579930871725082</v>
+        <v>0.007616777438670397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01658520847558975</v>
+        <v>3.535349242156371e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009750446304678917</v>
+        <v>0.006189756561070681</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01197527255862951</v>
+        <v>0.003969598095864058</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1717737019062042</v>
+        <v>0.003384346608072519</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01477059628814459</v>
+        <v>0.0002495398512110114</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006174498237669468</v>
+        <v>0.00104593497235328</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01537255570292473</v>
+        <v>0.001648177625611424</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01910432614386082</v>
+        <v>0.0004829255922231823</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02033762447535992</v>
+        <v>0.001986088464036584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01289309188723564</v>
+        <v>9.886972839012742e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02852282486855984</v>
+        <v>0.0002313437435077503</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01198048517107964</v>
+        <v>0.0008750882698222995</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04546346887946129</v>
+        <v>0.002062995918095112</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02057151310145855</v>
+        <v>0.00141355802770704</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02465729974210262</v>
+        <v>0.0003138021565973759</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.008396318182349205</v>
+        <v>0.0009953881381079555</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02826427295804024</v>
+        <v>0.0006469585932791233</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.009246669709682465</v>
+        <v>0.001558058895170689</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00363402278162539</v>
+        <v>0.0004418380267452449</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02024410292506218</v>
+        <v>0.0007699052803218365</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0454087108373642</v>
+        <v>0.0008802663069218397</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01324721984565258</v>
+        <v>0.0001336142595391721</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002277499064803123</v>
+        <v>0.0006033373647369444</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0140709662809968</v>
+        <v>0.0001620508701307699</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.002292438875883818</v>
+        <v>0.0001877345785032958</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.004995905794203281</v>
+        <v>0.0005299276672303677</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0001644596923142672</v>
+        <v>0.001200175029225647</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.01182581949979067</v>
+        <v>0.0001822842023102567</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01075174938887358</v>
+        <v>5.14803032274358e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.00296986335888505</v>
+        <v>0.0005571217625401914</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.02254229784011841</v>
+        <v>0.0004847689415328205</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.008033010177314281</v>
+        <v>0.0003005229809787124</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.004761259537190199</v>
+        <v>0.0004803304618690163</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.01585829816758633</v>
+        <v>0.0004955650074407458</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.000924997148104012</v>
+        <v>0.001327861566096544</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.04709416255354881</v>
+        <v>0.006712151691317558</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.00102204829454422</v>
+        <v>0.0003345290024299175</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.02781353518366814</v>
+        <v>0.001239970792084932</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.001526638399809599</v>
+        <v>8.225854980992153e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.06890605390071869</v>
+        <v>4.732536035589874e-05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.002768005477264524</v>
+        <v>0.0003268503933213651</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.007758892141282558</v>
+        <v>4.850627738051116e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.003802338615059853</v>
+        <v>0.0005637436406686902</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.01794041693210602</v>
+        <v>0.000652879592962563</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.007936437614262104</v>
+        <v>0.001297050039283931</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.009656825102865696</v>
+        <v>0.001915286062285304</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.02947003208100796</v>
+        <v>0.001477143610827625</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01094870083034039</v>
+        <v>0.004156950861215591</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.04016489535570145</v>
+        <v>0.001505543245002627</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.01622799783945084</v>
+        <v>0.001804050290957093</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.03613031655550003</v>
+        <v>0.001081359456293285</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.00173679506406188</v>
+        <v>0.00115212716627866</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.003497132565826178</v>
+        <v>0.0003856709518004209</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01095588319003582</v>
+        <v>0.0004768300277646631</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.006277706474065781</v>
+        <v>0.000863255059812218</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.006762681994587183</v>
+        <v>1.186010194942355e-06</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02099555544555187</v>
+        <v>0.0002770426799543202</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01970593631267548</v>
+        <v>0.001066635479219258</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.005627064500004053</v>
+        <v>0.0006196509930305183</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.02696821838617325</v>
+        <v>3.350496990606189e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.01350732147693634</v>
+        <v>0.000485029595438391</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.003054775297641754</v>
+        <v>0.0009341766126453876</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01741019263863564</v>
+        <v>0.003610414685681462</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01521432213485241</v>
+        <v>0.001310519408434629</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01319748535752296</v>
+        <v>0.001569472020491958</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.009552887640893459</v>
+        <v>0.0001687200274318457</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.06482011079788208</v>
+        <v>0.00104143179487437</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.005021203309297562</v>
+        <v>0.0001718919374980032</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003981376066803932</v>
+        <v>0.0001445788802811876</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.02254455350339413</v>
+        <v>0.0008080534753389657</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.003200262784957886</v>
+        <v>5.922949640080333e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.01270490325987339</v>
+        <v>0.001634047599509358</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.002123203361406922</v>
+        <v>0.0007476451573893428</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.01123456005007029</v>
+        <v>0.0006013260572217405</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0007959597278386354</v>
+        <v>0.0002925138105638325</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.02659378945827484</v>
+        <v>0.0007205278961919248</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.003499645739793777</v>
+        <v>0.0004555433406494558</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.000164975703228265</v>
+        <v>0.0001334750413661823</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0041701290756464</v>
+        <v>0.0002937549434136599</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.004424151033163071</v>
+        <v>0.001517430762760341</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.005765017587691545</v>
+        <v>0.0001901073555927724</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01558932848274708</v>
+        <v>7.920012285467237e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.003790621645748615</v>
+        <v>0.001129046780988574</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0123305656015873</v>
+        <v>0.001417380175553262</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01631039567291737</v>
+        <v>0.001113278907723725</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.001367855351418257</v>
+        <v>0.00105740618892014</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01290618255734444</v>
+        <v>0.001913737738505006</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.00493108993396163</v>
+        <v>0.0002383915707468987</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.007756804581731558</v>
+        <v>1.260045974049717e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.01092414744198322</v>
+        <v>0.001431779121048748</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.003997689113020897</v>
+        <v>0.0008404685067944229</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.010097561404109</v>
+        <v>0.0008560172282159328</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.001974274637177587</v>
+        <v>0.0002623516484163702</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.02844051271677017</v>
+        <v>0.0008797704940661788</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.002843553200364113</v>
+        <v>0.000447326572611928</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.006924622226506472</v>
+        <v>0.0001714186655590311</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.003480993444100022</v>
+        <v>8.11510399216786e-05</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.01628292165696621</v>
+        <v>0.0008347350521944463</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01281936094164848</v>
+        <v>0.001875131973065436</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01743657886981964</v>
+        <v>0.0003545529907569289</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.007050758227705956</v>
+        <v>0.001521214377135038</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.007446551695466042</v>
+        <v>0.0004923808155581355</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.00698073161765933</v>
+        <v>1.306118065258488e-05</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.02644692920148373</v>
+        <v>0.001184684108011425</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.001591486856341362</v>
+        <v>0.0005734780570492148</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.01000637747347355</v>
+        <v>0.0002014782658079639</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.01100274547934532</v>
+        <v>0.0001853926223702729</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.00346063869073987</v>
+        <v>0.0001527485001133755</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.005580443888902664</v>
+        <v>0.0004982437822036445</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.01589608192443848</v>
+        <v>0.0005068979226052761</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.01460787747055292</v>
+        <v>0.001012329827062786</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.008362875320017338</v>
+        <v>0.0004795633722096682</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0004427680978551507</v>
+        <v>0.0002556980180088431</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0001639279071241617</v>
+        <v>0.0003462167805992067</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.011606240645051</v>
+        <v>0.0004836541484110057</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002989470260217786</v>
+        <v>8.342910587089136e-05</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.004868767224252224</v>
+        <v>0.001235553761944175</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.007147541269659996</v>
+        <v>0.0007870931876823306</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002344699809327722</v>
+        <v>0.0001463630760554224</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.005627963691949844</v>
+        <v>0.0008699821773916483</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.000814021797850728</v>
+        <v>0.0005177303100936115</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.005414450541138649</v>
+        <v>0.0002820258087012917</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.002531545236706734</v>
+        <v>0.0005542447906918824</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.009156806394457817</v>
+        <v>0.0007315456750802696</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.007487360388040543</v>
+        <v>0.0005446509458124638</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.01840567216277122</v>
+        <v>0.000867063645273447</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.007654539309442043</v>
+        <v>0.0006342240958474576</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.006832370534539223</v>
+        <v>0.0005387963610701263</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.02121997252106667</v>
+        <v>0.0005019312375225127</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0351838655769825</v>
+        <v>0.001036235364153981</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.004553127102553844</v>
+        <v>0.0007351507083512843</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.00452294060960412</v>
+        <v>0.0003002943703904748</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.006601190660148859</v>
+        <v>6.492043030448258e-05</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.01014874223619699</v>
+        <v>0.000215647101867944</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0004591155447997153</v>
+        <v>0.001035430585034192</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.003541513811796904</v>
+        <v>0.0009090416133403778</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.001889575505629182</v>
+        <v>0.0007807589718140662</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.009207675233483315</v>
+        <v>0.0006476373528130352</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01226754672825336</v>
+        <v>0.002354946453124285</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.006238189525902271</v>
+        <v>0.0009633284062147141</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.005723373964428902</v>
+        <v>4.063778033014387e-05</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.01620083302259445</v>
+        <v>0.0004061303625348955</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.003139766398817301</v>
+        <v>0.0002979093987960368</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0129339462146163</v>
+        <v>0.001543600577861071</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.006599423009902239</v>
+        <v>0.0004637610691133887</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.01169328857213259</v>
+        <v>0.0009297225042246282</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.002253931947052479</v>
+        <v>0.0004238935653120279</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.02811958640813828</v>
+        <v>0.0008766959654167295</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.002371286973357201</v>
+        <v>0.0006017169216647744</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.004178679548203945</v>
+        <v>0.0001678214030107483</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.004042556509375572</v>
+        <v>0.0003256110940128565</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.007120548747479916</v>
+        <v>6.279865920078009e-05</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.01545620243996382</v>
+        <v>0.0004892833530902863</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.01880488358438015</v>
+        <v>0.0005796787445433438</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01456828229129314</v>
+        <v>0.001219331403262913</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01572016067802906</v>
+        <v>0.0002351515868213028</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.02685722336173058</v>
+        <v>0.0001461857027607039</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0009960511233657598</v>
+        <v>0.0003229844151064754</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001826947671361268</v>
+        <v>0.0002719665062613785</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.01718985848128796</v>
+        <v>0.0005506122251972556</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.00243075005710125</v>
+        <v>0.0002004790148930624</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01476310193538666</v>
+        <v>0.002791606588289142</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0006364748114719987</v>
+        <v>0.0003934034903068095</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01860728487372398</v>
+        <v>0.001344682881608605</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01388365868479013</v>
+        <v>0.0001535585033707321</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.04277870059013367</v>
+        <v>0.0003896905982401222</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.002840470755472779</v>
+        <v>0.0002235220745205879</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.002805812051519752</v>
+        <v>7.18359078746289e-05</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.002950464375317097</v>
+        <v>0.0004664651642087847</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.01202268525958061</v>
+        <v>0.001208823290653527</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.006770310923457146</v>
+        <v>0.0003774706274271011</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.004083077423274517</v>
+        <v>0.0002554989187046885</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.007670050021260977</v>
+        <v>0.0003892776439897716</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.003621983807533979</v>
+        <v>0.0008507943712174892</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0150077473372221</v>
+        <v>0.0005997709231451154</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.002291892422363162</v>
+        <v>0.002036389196291566</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.02944816276431084</v>
+        <v>0.0001085933618014678</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.003902611555531621</v>
+        <v>0.0001166629226645455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01901726424694061</v>
+        <v>2.640829188749194e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03171402961015701</v>
+        <v>0.001243086415342987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04661925882101059</v>
+        <v>5.646710997098126e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02298092283308506</v>
+        <v>0.0005005760467611253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02613592334091663</v>
+        <v>0.0004025537054985762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1547917276620865</v>
+        <v>0.0008855649502947927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03397923335433006</v>
+        <v>0.0002298883337061852</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1161100268363953</v>
+        <v>0.0003352721396367997</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0413406528532505</v>
+        <v>3.559118704288267e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0225691981613636</v>
+        <v>0.0002576948900241405</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03337975963950157</v>
+        <v>0.0009570436086505651</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04785944521427155</v>
+        <v>0.0001882316573755816</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02318835258483887</v>
+        <v>0.0004457691975403577</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02099523693323135</v>
+        <v>0.0004492540319915861</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1470512598752975</v>
+        <v>0.00102870655246079</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02867040038108826</v>
+        <v>0.000121531898912508</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.106411911547184</v>
+        <v>0.0001407816307619214</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05094574391841888</v>
+        <v>2.644225605763495e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02003667503595352</v>
+        <v>0.0001464621018385515</v>
       </c>
       <c r="T9" t="n">
-        <v>0.00579859409481287</v>
+        <v>0.0002763273660093546</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004590015858411789</v>
+        <v>4.655285010812804e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01282649859786034</v>
+        <v>9.905662591336295e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008360664360225201</v>
+        <v>2.660063000803348e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04905359819531441</v>
+        <v>0.0001306479971390218</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.006199552677571774</v>
+        <v>0.0001522081001894549</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01130901370197535</v>
+        <v>2.94116762233898e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.00953324418514967</v>
+        <v>0.0001330655213678256</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.00857938639819622</v>
+        <v>9.322915138909593e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01723367720842361</v>
+        <v>0.00026805599918589</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0001496263721492141</v>
+        <v>0.0001398948224959895</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0252238642424345</v>
+        <v>9.298275108449161e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.07085994631052017</v>
+        <v>0.0001876038440968841</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0124211497604847</v>
+        <v>9.803847206057981e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.02968798950314522</v>
+        <v>0.0001340097805950791</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.01798419281840324</v>
+        <v>0.0001271334622288123</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.002085944171994925</v>
+        <v>1.559316297061741e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.002837824169546366</v>
+        <v>0.0001376761501887813</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.02123885229229927</v>
+        <v>0.0002430883469060063</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.02433507330715656</v>
+        <v>4.595646896632388e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.002535228384658694</v>
+        <v>1.494695607107133e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.02746891416609287</v>
+        <v>3.386043681530282e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0179667379707098</v>
+        <v>0.0002105119201587513</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0007659343536943197</v>
+        <v>4.081575752934441e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.002784479409456253</v>
+        <v>4.618166713044047e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.005509322509169579</v>
+        <v>0.0001480696955695748</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.01202745735645294</v>
+        <v>0.0001690650969976559</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.003979408647865057</v>
+        <v>0.0008623748435638845</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.04159384593367577</v>
+        <v>7.759903382975608e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0127000855281949</v>
+        <v>3.484502667561173e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02094769850373268</v>
+        <v>0.0001820152101572603</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.1038915067911148</v>
+        <v>0.0006045505870133638</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.008205249905586243</v>
+        <v>0.0001294719695579261</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0480242632329464</v>
+        <v>0.0002288967662025243</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.007878920063376427</v>
+        <v>0.0002114092494593933</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.007194732315838337</v>
+        <v>6.705037958454341e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.004893741570413113</v>
+        <v>0.0001896782632684335</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.01737953722476959</v>
+        <v>0.000397119321860373</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.03161906078457832</v>
+        <v>0.0003259257646277547</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0154345566406846</v>
+        <v>0.000400419783545658</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.00373828737065196</v>
+        <v>0.0002551341603975743</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.03007738292217255</v>
+        <v>0.0001179668470285833</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.03712453693151474</v>
+        <v>0.0003394583472982049</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.006831068079918623</v>
+        <v>5.359750502975658e-06</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.01344993151724339</v>
+        <v>7.541212107753381e-05</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.004066834691911936</v>
+        <v>0.0001713841193122789</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.01748423278331757</v>
+        <v>0.0001209072215715423</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.007769765332341194</v>
+        <v>0.0001161237669293769</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02156089246273041</v>
+        <v>4.770641680806875e-05</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.01890462264418602</v>
+        <v>0.0001799389865482226</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.01674943044781685</v>
+        <v>0.0002022131229750812</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0004455707967281342</v>
+        <v>6.338565435726196e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0006488035432994366</v>
+        <v>5.853671245859005e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.02262915298342705</v>
+        <v>9.213814337272197e-05</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.005154626909643412</v>
+        <v>0.000451927917310968</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.00342703890055418</v>
+        <v>0.0001525336847407743</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.000276356004178524</v>
+        <v>8.365025860257447e-05</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.02006794139742851</v>
+        <v>0.0002703927457332611</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.05391782522201538</v>
+        <v>0.00012512895045802</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01410181820392609</v>
+        <v>0.0001449420815333724</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.03309473767876625</v>
+        <v>0.0001266906474484131</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.02324640564620495</v>
+        <v>0.0001441714994143695</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.003634665161371231</v>
+        <v>2.137703631888144e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.02621433511376381</v>
+        <v>0.0002243806229671463</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.01122749596834183</v>
+        <v>0.0001412078854627907</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.01169240474700928</v>
+        <v>0.000106867155409418</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.001661080867052078</v>
+        <v>6.218477210495621e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.02835408970713615</v>
+        <v>0.0001562434190418571</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.004188204184174538</v>
+        <v>3.695987470564432e-05</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01914347521960735</v>
+        <v>7.086032564984635e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.007855546660721302</v>
+        <v>9.025315375765786e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.01949225179851055</v>
+        <v>0.0001714293757686391</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.01000894978642464</v>
+        <v>7.204242137959227e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.01976170018315315</v>
+        <v>0.0001451670832466334</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.02160204946994781</v>
+        <v>7.457652827724814e-05</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03514232486486435</v>
+        <v>3.314491186756641e-05</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.03029983676970005</v>
+        <v>3.848497726721689e-05</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.01489265356212854</v>
+        <v>0.0001465603709220886</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0004841990303248167</v>
+        <v>0.0002174857072532177</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.01327417138963938</v>
+        <v>1.860328666225541e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.007900703698396683</v>
+        <v>3.741819818969816e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.02925315126776695</v>
+        <v>0.0001672615908319131</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.01202100794762373</v>
+        <v>0.000159080809680745</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.007492541335523129</v>
+        <v>0.0001827242522267625</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.005147957243025303</v>
+        <v>4.493345477385446e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.03049509599804878</v>
+        <v>0.0001636925153434277</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.001962048467248678</v>
+        <v>4.230310878483579e-05</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02722349762916565</v>
+        <v>0.000142499411595054</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.00923259649425745</v>
+        <v>5.776547186542302e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.02362892590463161</v>
+        <v>0.0001870958949439228</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.002571153454482555</v>
+        <v>0.0003059148439206183</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.01004547905176878</v>
+        <v>4.445858576218598e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.01429060660302639</v>
+        <v>0.0004373114788904786</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.004091055598109961</v>
+        <v>0.0002034903882304206</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.03073509037494659</v>
+        <v>4.00023018300999e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01661347597837448</v>
+        <v>0.0001917851186590269</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.01665298268198967</v>
+        <v>0.0001920893118949607</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.01237553544342518</v>
+        <v>5.64714937354438e-05</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01763231679797173</v>
+        <v>9.652931476011872e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.01781371049582958</v>
+        <v>0.0001074297324521467</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.003702533431351185</v>
+        <v>0.00010605865099933</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01768348924815655</v>
+        <v>0.0001486272230977193</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.003370087360963225</v>
+        <v>1.542904556117719e-06</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.02806317992508411</v>
+        <v>1.482761399529409e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.002925038803368807</v>
+        <v>5.3256684623193e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.002458291361108422</v>
+        <v>9.83111749519594e-06</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.004393944516777992</v>
+        <v>0.0001589555613463745</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.002461185678839684</v>
+        <v>7.291047222679481e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.003944038413465023</v>
+        <v>0.0002632239775266498</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.003111298661679029</v>
+        <v>0.000349591369740665</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.005327878519892693</v>
+        <v>1.221134880324826e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.009130328893661499</v>
+        <v>7.530536822741851e-05</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.002442269120365381</v>
+        <v>3.850748908007517e-05</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.003313655033707619</v>
+        <v>4.148762855038512e-06</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.00146732828579843</v>
+        <v>0.0001081097580026835</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.001351820887066424</v>
+        <v>4.299817373976111e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.01063796877861023</v>
+        <v>0.0001530169392935932</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.02750749513506889</v>
+        <v>0.0001193573261843994</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.001269207103177905</v>
+        <v>3.256695708842017e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.004079508595168591</v>
+        <v>4.703814192907885e-05</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01302437018603086</v>
+        <v>1.162867920356803e-05</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.01545866020023823</v>
+        <v>0.0001701704022707418</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0004178732633590698</v>
+        <v>0.0001039984781527892</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.02542099729180336</v>
+        <v>1.137977415055502e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.01572463475167751</v>
+        <v>1.537089519842993e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.007077618502080441</v>
+        <v>1.553660695208237e-06</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.008607017807662487</v>
+        <v>9.391021740157157e-05</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0194980651140213</v>
+        <v>0.0002497279783710837</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.003144917543977499</v>
+        <v>0.0001369000819977373</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01386810746043921</v>
+        <v>0.0001077365086530335</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.02186737395823002</v>
+        <v>0.000157775153638795</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.006181018427014351</v>
+        <v>0.0001049446218530647</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.006884362082928419</v>
+        <v>0.0001663291914155707</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.001490497030317783</v>
+        <v>2.110837158397771e-06</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.007303393445909023</v>
+        <v>2.10558318940457e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.02557530626654625</v>
+        <v>0.0001926757977344096</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.01415192056447268</v>
+        <v>0.0001082902672351338</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.01093013118952513</v>
+        <v>0.0001002176868496463</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.004953716415911913</v>
+        <v>9.84587095445022e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0313367024064064</v>
+        <v>0.0001576415379531682</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.163547858595848e-05</v>
+        <v>7.727788761258125e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02599475532770157</v>
+        <v>7.930041465442628e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.006979703903198242</v>
+        <v>0.0001129551601479761</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.003455917816609144</v>
+        <v>4.749305844597984e-06</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.02588953450322151</v>
+        <v>5.96696772845462e-05</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.008667376823723316</v>
+        <v>0.000298675149679184</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.0217200331389904</v>
+        <v>0.0001275278773391619</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.004146120510995388</v>
+        <v>7.36143410904333e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.01239274721592665</v>
+        <v>8.259627793449908e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.001726024784147739</v>
+        <v>5.181815504329279e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.03032135032117367</v>
+        <v>1.704564238025341e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.0004930086433887482</v>
+        <v>4.793890184373595e-05</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.004543146584182978</v>
+        <v>3.199804632458836e-05</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.02308254688978195</v>
+        <v>0.0002723563520703465</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.002688300097361207</v>
+        <v>7.310046203201637e-05</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.04514076933264732</v>
+        <v>0.000117622475954704</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.008827494457364082</v>
+        <v>0.0002378683711867779</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.07123006135225296</v>
+        <v>0.0001639997062738985</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.02078724093735218</v>
+        <v>2.794439933495596e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.02272805944085121</v>
+        <v>0.0001569821470184252</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.02389677241444588</v>
+        <v>5.473328565130942e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.001153247663751245</v>
+        <v>0.0002801483497023582</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.007302382029592991</v>
+        <v>5.772133590653539e-05</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.002847340190783143</v>
+        <v>9.216301987180486e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01810002699494362</v>
+        <v>0.0001191649935208261</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.008855189196765423</v>
+        <v>0.0001438180479453877</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.01246356964111328</v>
+        <v>0.0001519857760285959</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.009473207406699657</v>
+        <v>0.0005325718084350228</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01216802652925253</v>
+        <v>3.404383096494712e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.01055789180099964</v>
+        <v>0.0001588000741321594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007572517264634371</v>
+        <v>0.002752043539658189</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03563528135418892</v>
+        <v>0.03437234088778496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003210266353562474</v>
+        <v>0.004126399289816618</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007112611550837755</v>
+        <v>0.01638187654316425</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0214717909693718</v>
+        <v>0.005367912352085114</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04388458654284477</v>
+        <v>0.007625462953001261</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003936661407351494</v>
+        <v>0.0008555504027754068</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01416716724634171</v>
+        <v>0.001519157318398356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007188597694039345</v>
+        <v>6.315545761026442e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003399247769266367</v>
+        <v>0.00362052908167243</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03297349810600281</v>
+        <v>0.02655144780874252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001616773311980069</v>
+        <v>0.0009695371263660491</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001840180717408657</v>
+        <v>0.01312403753399849</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02125149220228195</v>
+        <v>0.006325225345790386</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03681668266654015</v>
+        <v>0.006270705722272396</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005130480974912643</v>
+        <v>0.001180827151983976</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001592627726495266</v>
+        <v>0.005637604277580976</v>
       </c>
       <c r="R10" t="n">
-        <v>0.006865387782454491</v>
+        <v>0.001801079139113426</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004680107347667217</v>
+        <v>0.0009039416909217834</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003934696782380342</v>
+        <v>0.005236712750047445</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001378671266138554</v>
+        <v>0.000809942779596895</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007473776116967201</v>
+        <v>0.003470316296443343</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0112027246505022</v>
+        <v>0.001807330641895533</v>
       </c>
       <c r="X10" t="n">
-        <v>0.006939793936908245</v>
+        <v>0.004782644100487232</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005826108623296022</v>
+        <v>0.002222185488790274</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01235329173505306</v>
+        <v>0.002501707756891847</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00040775490924716</v>
+        <v>0.00298143201507628</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003304832149296999</v>
+        <v>0.0006454219110310078</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0002137666597263888</v>
+        <v>0.001565839629620314</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002859035506844521</v>
+        <v>0.0004923063679598272</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.00341564929112792</v>
+        <v>0.001998615218326449</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01055406406521797</v>
+        <v>0.001264531747438014</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0009149102261289954</v>
+        <v>0.0008002696558833122</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0003865541075356305</v>
+        <v>0.00162030674982816</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01205320283770561</v>
+        <v>0.00196673022583127</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.001274326699785888</v>
+        <v>0.001280477503314614</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0002711427514441311</v>
+        <v>0.00357401417568326</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.004976335912942886</v>
+        <v>0.003112540580332279</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.001291110995225608</v>
+        <v>0.0008487955783493817</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0002895091893151402</v>
+        <v>0.00293960259296</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.001278327661566436</v>
+        <v>0.001680176006630063</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.004715429618954659</v>
+        <v>0.003701107576489449</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.002068971050903201</v>
+        <v>0.0006117210723459721</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.003386324504390359</v>
+        <v>0.001688794349320233</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.005132396705448627</v>
+        <v>0.002318394370377064</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.004538252018392086</v>
+        <v>0.001083271810784936</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01328453607857227</v>
+        <v>0.02098497562110424</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.004147354047745466</v>
+        <v>0.001233982387930155</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.00447356328368187</v>
+        <v>0.003305185586214066</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.003025658428668976</v>
+        <v>0.002995004411786795</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.02393371984362602</v>
+        <v>0.00187951885163784</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.001081506023183465</v>
+        <v>0.0001443251385353506</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.001249505439773202</v>
+        <v>0.003993903286755085</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0003829807974398136</v>
+        <v>0.00118339667096734</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0008944174041971564</v>
+        <v>0.00256014964543283</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.007763359230011702</v>
+        <v>0.005321674980223179</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.002290613716468215</v>
+        <v>0.006015641614794731</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01581611856818199</v>
+        <v>0.00395767530426383</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0009585358202457428</v>
+        <v>0.01159981451928616</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.007642678916454315</v>
+        <v>0.001926892902702093</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.005991175770759583</v>
+        <v>0.003151130164042115</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.007352044805884361</v>
+        <v>0.005534520372748375</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.002224227879196405</v>
+        <v>0.0008637016289867461</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.004118282813578844</v>
+        <v>0.002482493873685598</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.00569924945011735</v>
+        <v>0.001806694432161748</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00460444763302803</v>
+        <v>0.001665507559664547</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.005489105824381113</v>
+        <v>0.001382421934977174</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.001332481391727924</v>
+        <v>0.002871184144169092</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.002277092542499304</v>
+        <v>0.003021464915946126</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001715189311653376</v>
+        <v>0.00156379968393594</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.007866449654102325</v>
+        <v>0.001463583670556545</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.003839601762592793</v>
+        <v>0.002099159639328718</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0006694421172142029</v>
+        <v>0.001628314726985991</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.007598043885082006</v>
+        <v>0.0113053061068058</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.003143811132758856</v>
+        <v>0.002574013313278556</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.002159611089155078</v>
+        <v>0.00121979066170752</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.005535188596695662</v>
+        <v>0.001624275930225849</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01172004267573357</v>
+        <v>0.002911630552262068</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.001093632192350924</v>
+        <v>0.0008942519198171794</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001194407930597663</v>
+        <v>0.0004371609538793564</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.009237343445420265</v>
+        <v>0.001467360183596611</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.002344385953620076</v>
+        <v>2.857093932107091e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.006486633792519569</v>
+        <v>0.00569989113137126</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.001199679332785308</v>
+        <v>0.002046610461547971</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0002266271039843559</v>
+        <v>0.002096587559208274</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.003685636445879936</v>
+        <v>0.001838491996750236</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.00707087991759181</v>
+        <v>0.001572297653183341</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001361355767585337</v>
+        <v>0.00202870718203485</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.001549778040498495</v>
+        <v>0.001466165180318058</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.002000804292038083</v>
+        <v>0.001472495729103684</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0004628879250958562</v>
+        <v>0.005774985533207655</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.003897056449204683</v>
+        <v>0.000656997668556869</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.005682002753019333</v>
+        <v>0.001357569126412272</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.006408002227544785</v>
+        <v>0.003920948598533869</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.006158171221613884</v>
+        <v>0.005955907981842756</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.007090909406542778</v>
+        <v>0.006278532557189465</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0007678298279643059</v>
+        <v>0.002800699090585113</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001906428020447493</v>
+        <v>0.001972049241885543</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.002488030353561044</v>
+        <v>0.002345280954614282</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.002393573988229036</v>
+        <v>4.587231887853704e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.008005362935364246</v>
+        <v>0.005595562979578972</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.000202012452064082</v>
+        <v>0.002156871603801847</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0007883666548877954</v>
+        <v>0.003005341626703739</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.005425549112260342</v>
+        <v>0.002186577068641782</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.006486719008535147</v>
+        <v>0.001763991545885801</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.002384653547778726</v>
+        <v>0.002072504255920649</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.003895416855812073</v>
+        <v>0.001884924946352839</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.00228722533211112</v>
+        <v>0.0009458224521949887</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0009235066827386618</v>
+        <v>0.002366889035329223</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0007647535530850291</v>
+        <v>0.007137762382626534</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.003151207463815808</v>
+        <v>0.0006629519630223513</v>
       </c>
       <c r="DH10" t="n">
-        <v>7.613410707563162e-05</v>
+        <v>0.01029263529926538</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.000930380541831255</v>
+        <v>0.003378367749974132</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.004007182084023952</v>
+        <v>0.0005009674350731075</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.007766849361360073</v>
+        <v>0.001349126570858061</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.002496654400601983</v>
+        <v>0.0004634826327674091</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.005418527871370316</v>
+        <v>0.001986265182495117</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.006785362958908081</v>
+        <v>0.002448531799018383</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.002829353325068951</v>
+        <v>0.001337900408543646</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.001430295407772064</v>
+        <v>0.0003212662995792925</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.004111293703317642</v>
+        <v>0.002149272477254272</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.001446791226044297</v>
+        <v>0.003860908560454845</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003288212465122342</v>
+        <v>0.00155823165550828</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.002549368422478437</v>
+        <v>0.001748092006891966</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.00045166932977736</v>
+        <v>0.001978013198822737</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.003285555634647608</v>
+        <v>0.001429340103641152</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0008393398020416498</v>
+        <v>3.590686537791044e-05</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0001034889719448984</v>
+        <v>0.001527266926132143</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.00131059973500669</v>
+        <v>0.00294253439642489</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.00395381823182106</v>
+        <v>0.0007340360898524523</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.001259551849216223</v>
+        <v>0.003837255761027336</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.002681668382138014</v>
+        <v>0.002052466152235866</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.002042176201939583</v>
+        <v>0.001228612032718956</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.001218458171933889</v>
+        <v>0.0003952042607124895</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.004529513884335756</v>
+        <v>0.001557300565764308</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001577271148562431</v>
+        <v>0.003419132204726338</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.00725311366841197</v>
+        <v>0.005381172988563776</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.003292202251031995</v>
+        <v>0.002803656505420804</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.001695330254733562</v>
+        <v>0.002116062678396702</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.01342446729540825</v>
+        <v>0.001784130348823965</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.007769967429339886</v>
+        <v>0.001841151621192694</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.000167436373885721</v>
+        <v>0.002592487260699272</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.006826143711805344</v>
+        <v>0.0003962893388234079</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.004990705288946629</v>
+        <v>0.0003517734003253281</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001504671876318753</v>
+        <v>0.0002166911726817489</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.003421748522669077</v>
+        <v>0.004245306365191936</v>
       </c>
       <c r="EQ10" t="n">
-        <v>3.754510544240475e-05</v>
+        <v>0.001638318761251867</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.001378541230224073</v>
+        <v>0.002597828395664692</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.004638108424842358</v>
+        <v>0.002451258478686213</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.004011103883385658</v>
+        <v>0.005513104610145092</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.004411052912473679</v>
+        <v>0.002952744718641043</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0006235440960153937</v>
+        <v>0.001980755478143692</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.004912364296615124</v>
+        <v>0.001214029733091593</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.002981271361932158</v>
+        <v>0.000714220164809376</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.006654658820480108</v>
+        <v>0.005606648977845907</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0002793005551211536</v>
+        <v>0.001225366722792387</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0003113655839115381</v>
+        <v>0.002815679414197803</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.00418266374617815</v>
+        <v>0.001963396556675434</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.005832872353494167</v>
+        <v>0.001287406077608466</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001588639337569475</v>
+        <v>0.00232892925851047</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.003487877082079649</v>
+        <v>0.001674545230343938</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.002619406674057245</v>
+        <v>0.001811653492040932</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.00333212036639452</v>
+        <v>0.001070998376235366</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0110238678753376</v>
+        <v>0.001987454481422901</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.006107323803007603</v>
+        <v>0.001014249864965677</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001645828946493566</v>
+        <v>0.00443100742995739</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01097242720425129</v>
+        <v>0.002589472336694598</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.008162215352058411</v>
+        <v>0.001215467695146799</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0005137271946296096</v>
+        <v>0.000839469488710165</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.002554799430072308</v>
+        <v>0.0007264767773449421</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.005559112876653671</v>
+        <v>0.00100331474095583</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.003224574727937579</v>
+        <v>0.001319274655543268</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01299320999532938</v>
+        <v>0.004382777493447065</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.001219168305397034</v>
+        <v>0.004874219186604023</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.01660158298909664</v>
+        <v>0.0002624376793392003</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.005481027066707611</v>
+        <v>0.0005778712802566588</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.009589533321559429</v>
+        <v>0.001305157435126603</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.001057009445503354</v>
+        <v>0.0002614480326883495</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.002274118131026626</v>
+        <v>0.0008358116028830409</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001547169056721032</v>
+        <v>0.003242116887122393</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.002874625381082296</v>
+        <v>0.002910368144512177</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.002003619913011789</v>
+        <v>0.000323788815876469</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.001138762454502285</v>
+        <v>0.0008679182501509786</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.005146748386323452</v>
+        <v>6.756233051419258e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.006008780095726252</v>
+        <v>0.003223142353817821</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.001376982778310776</v>
+        <v>0.002779169473797083</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0007486355025321245</v>
+        <v>0.006852867547422647</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0109230037778616</v>
+        <v>0.000245401228312403</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.003078492125496268</v>
+        <v>0.003052511950954795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06822986900806427</v>
+        <v>0.06239230185747147</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1556868106126785</v>
+        <v>0.4775137305259705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02241666242480278</v>
+        <v>0.03997117653489113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09559175372123718</v>
+        <v>0.3258570432662964</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1670607775449753</v>
+        <v>0.07773273438215256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1067946925759315</v>
+        <v>0.3516118228435516</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04997412487864494</v>
+        <v>0.02235058695077896</v>
       </c>
       <c r="H11" t="n">
-        <v>0.103645034134388</v>
+        <v>0.1191519200801849</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03210358321666718</v>
+        <v>0.1022151336073875</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0163981206715107</v>
+        <v>0.1349563896656036</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07166969031095505</v>
+        <v>0.3723869621753693</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001657387241721153</v>
+        <v>0.01225994434207678</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1155810579657555</v>
+        <v>0.2927703261375427</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1629651933908463</v>
+        <v>0.06845726072788239</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1285835802555084</v>
+        <v>0.3948026299476624</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01017883792519569</v>
+        <v>0.02084315195679665</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1037186980247498</v>
+        <v>0.002122536301612854</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006502968724817038</v>
+        <v>0.08778797835111618</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0783199667930603</v>
+        <v>0.0263722762465477</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05624223873019218</v>
+        <v>0.05278322473168373</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01386827789247036</v>
+        <v>0.05565597116947174</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001275510527193546</v>
+        <v>0.06240377947688103</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07143289595842361</v>
+        <v>0.03730044513940811</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03507930040359497</v>
+        <v>0.02254104055464268</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0216844230890274</v>
+        <v>0.06047048792243004</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06409968435764313</v>
+        <v>0.04834572225809097</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.007019414100795984</v>
+        <v>0.05994464829564095</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04421866685152054</v>
+        <v>0.01299616321921349</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01464566309005022</v>
+        <v>0.06295590102672577</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04967180639505386</v>
+        <v>0.03153176978230476</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01673552766442299</v>
+        <v>0.003793851472437382</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1231565177440643</v>
+        <v>0.02413059026002884</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07090282440185547</v>
+        <v>0.01557295396924019</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01008069235831499</v>
+        <v>0.03768769279122353</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.05362835898995399</v>
+        <v>0.0216086283326149</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0003481404855847359</v>
+        <v>0.01961969397962093</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03660109266638756</v>
+        <v>0.0550069734454155</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.02852099016308784</v>
+        <v>0.07799077033996582</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.01959487423300743</v>
+        <v>0.035630002617836</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01168497744947672</v>
+        <v>0.02521161735057831</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0334211103618145</v>
+        <v>0.02667383290827274</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.00439502764493227</v>
+        <v>0.05666913092136383</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.006752533838152885</v>
+        <v>0.01042989082634449</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.01378390565514565</v>
+        <v>0.04052666947245598</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01912291720509529</v>
+        <v>0.05684990063309669</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.001431981101632118</v>
+        <v>0.02959808520972729</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01353511866182089</v>
+        <v>0.3145270049571991</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.04340771958231926</v>
+        <v>0.03008307889103889</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04961574450135231</v>
+        <v>0.08142591267824173</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02461381442844868</v>
+        <v>0.03591533750295639</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.009965354576706886</v>
+        <v>0.1723142713308334</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.03576778620481491</v>
+        <v>0.02061637304723263</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.03862206637859344</v>
+        <v>0.04027825221419334</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01216792035847902</v>
+        <v>0.08853109180927277</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.009127235040068626</v>
+        <v>0.05838973075151443</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.07523214817047119</v>
+        <v>0.08109086751937866</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.06533610075712204</v>
+        <v>0.1343742161989212</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01348718628287315</v>
+        <v>0.07625028491020203</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1021446138620377</v>
+        <v>0.1447088867425919</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01510415878146887</v>
+        <v>0.08499904721975327</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.02916005998849869</v>
+        <v>0.04402821883559227</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.07451283931732178</v>
+        <v>0.08271673321723938</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.03316116705536842</v>
+        <v>0.05821149796247482</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.02090846374630928</v>
+        <v>0.002689192071557045</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01511591486632824</v>
+        <v>0.07734065502882004</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.08467797189950943</v>
+        <v>0.05564424768090248</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01227411814033985</v>
+        <v>0.04395483806729317</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01694184355437756</v>
+        <v>0.03341106697916985</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.02274702861905098</v>
+        <v>0.005296962335705757</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.007275862619280815</v>
+        <v>0.04178690910339355</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.009829818271100521</v>
+        <v>0.02816553972661495</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.003641669638454914</v>
+        <v>0.005362097173929214</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0007092542946338654</v>
+        <v>0.02586342021822929</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.01198473945260048</v>
+        <v>0.1651022881269455</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.03899677470326424</v>
+        <v>0.08017192035913467</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.03715873882174492</v>
+        <v>0.1006928384304047</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04184724763035774</v>
+        <v>0.05344735458493233</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.07137653976678848</v>
+        <v>0.08925934135913849</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.01941571943461895</v>
+        <v>0.02444958686828613</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.001080278307199478</v>
+        <v>0.03028369136154652</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.004988810047507286</v>
+        <v>0.06991073489189148</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.01347975153476</v>
+        <v>0.01021907851099968</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.06808580458164215</v>
+        <v>0.07450780272483826</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.007800697349011898</v>
+        <v>0.06605113297700882</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0257883295416832</v>
+        <v>0.0431252047419548</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02394904755055904</v>
+        <v>0.02695345133543015</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.009648834355175495</v>
+        <v>0.06012680381536484</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01867314428091049</v>
+        <v>0.02410006895661354</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.02770141325891018</v>
+        <v>0.0291234627366066</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.01499548926949501</v>
+        <v>0.03650611266493797</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.05755139887332916</v>
+        <v>0.07064752280712128</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.05084545910358429</v>
+        <v>0.001811021007597446</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.005901876371353865</v>
+        <v>0.01708073168992996</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.02140268310904503</v>
+        <v>0.03676712512969971</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.05252375826239586</v>
+        <v>0.02936184965074062</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.03214428573846817</v>
+        <v>0.01898211613297462</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.05489370971918106</v>
+        <v>0.08387894928455353</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02888814173638821</v>
+        <v>0.06464227288961411</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.04410316050052643</v>
+        <v>0.008027065545320511</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.007321043405681849</v>
+        <v>0.0008927257731556892</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0858924463391304</v>
+        <v>0.06451572477817535</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02283176593482494</v>
+        <v>0.06954891234636307</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.03362640738487244</v>
+        <v>0.06539703160524368</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.03815246373414993</v>
+        <v>0.02378853783011436</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.02276976034045219</v>
+        <v>0.06825098395347595</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.02401154488325119</v>
+        <v>0.02425219491124153</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.02563278563320637</v>
+        <v>0.05368014425039291</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.02018995210528374</v>
+        <v>0.01692923717200756</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01310059987008572</v>
+        <v>0.02662784792482853</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05793479830026627</v>
+        <v>0.02830357477068901</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.054818045347929</v>
+        <v>0.01626577042043209</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.008521835319697857</v>
+        <v>0.1442970335483551</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.06319908797740936</v>
+        <v>0.001822483260184526</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01218992192298174</v>
+        <v>0.02530935779213905</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.01816026493906975</v>
+        <v>0.06275463104248047</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.006184265948832035</v>
+        <v>0.05341711267828941</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01243659947067499</v>
+        <v>0.02096093073487282</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01318732276558876</v>
+        <v>0.001078092958778143</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01734845899045467</v>
+        <v>0.008718441240489483</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.006292516831308603</v>
+        <v>0.03783819824457169</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.01136007532477379</v>
+        <v>0.03583440557122231</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0181674100458622</v>
+        <v>0.01280797459185123</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0593465119600296</v>
+        <v>0.004218555986881256</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.003031228668987751</v>
+        <v>0.03928002715110779</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.001354190986603498</v>
+        <v>0.007189773488789797</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.02244705706834793</v>
+        <v>0.06736589968204498</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01457840763032436</v>
+        <v>0.01324041467159986</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01394072920084</v>
+        <v>0.006158202420920134</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01151363085955381</v>
+        <v>0.09473182260990143</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.01102859154343605</v>
+        <v>0.01798520423471928</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.00626668194308877</v>
+        <v>0.01408624276518822</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.001810613553971052</v>
+        <v>0.02015507221221924</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.002449768595397472</v>
+        <v>0.01173909194767475</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01383969374001026</v>
+        <v>0.03672982379794121</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.002581655513495207</v>
+        <v>0.0327904000878334</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.032303836196661</v>
+        <v>0.03389495238661766</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.03886066004633904</v>
+        <v>0.05409074574708939</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.002565572038292885</v>
+        <v>0.05245408415794373</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.02494587749242783</v>
+        <v>0.006175078917294741</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.05474765226244926</v>
+        <v>0.002555401064455509</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.05276795104146004</v>
+        <v>0.06139381974935532</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.009525188244879246</v>
+        <v>0.03982513025403023</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01932311058044434</v>
+        <v>0.007719691842794418</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.04730923846364021</v>
+        <v>0.0138073991984129</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.02416074648499489</v>
+        <v>0.003245741128921509</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.07527241110801697</v>
+        <v>0.03290591388940811</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.06045903638005257</v>
+        <v>0.06252787262201309</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.01801792532205582</v>
+        <v>0.06040818616747856</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.008312053047120571</v>
+        <v>0.00646737776696682</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01041869074106216</v>
+        <v>0.0598708800971508</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01505087316036224</v>
+        <v>0.05992137640714645</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0176974181085825</v>
+        <v>0.1031137183308601</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.004113366827368736</v>
+        <v>0.00943000428378582</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.01121894549578428</v>
+        <v>0.003827946726232767</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.06923414766788483</v>
+        <v>0.0583166629076004</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.02625128626823425</v>
+        <v>0.05476232618093491</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.02320539392530918</v>
+        <v>0.06239199638366699</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.03690817207098007</v>
+        <v>0.03350201994180679</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.01473757810890675</v>
+        <v>0.05527964234352112</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0258447639644146</v>
+        <v>0.04460403695702553</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.02164498344063759</v>
+        <v>0.03505676239728928</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.01882537826895714</v>
+        <v>0.03605581820011139</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.00498215900734067</v>
+        <v>0.01146515086293221</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04027820378541946</v>
+        <v>0.04139905422925949</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.0125548429787159</v>
+        <v>0.06121933087706566</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.04517276585102081</v>
+        <v>0.07847204804420471</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02079244516789913</v>
+        <v>0.01200236193835735</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.04294165596365929</v>
+        <v>0.03826349228620529</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.03998825699090958</v>
+        <v>0.03606424480676651</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03826374560594559</v>
+        <v>0.02106244117021561</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.01634195260703564</v>
+        <v>0.03744634985923767</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.07121257483959198</v>
+        <v>0.02998076938092709</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.03578593209385872</v>
+        <v>0.08948909491300583</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.01043131481856108</v>
+        <v>0.03663917630910873</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.01921233534812927</v>
+        <v>0.1127233877778053</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.001440897583961487</v>
+        <v>0.03677715733647346</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.002842942252755165</v>
+        <v>0.05654402822256088</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.004219324328005314</v>
+        <v>0.08893405646085739</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.008041728287935257</v>
+        <v>0.02938944101333618</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.03873065859079361</v>
+        <v>0.004035155288875103</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.02189360372722149</v>
+        <v>0.08910998702049255</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.06481160968542099</v>
+        <v>0.02057969011366367</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.001662356196902692</v>
+        <v>0.03397370874881744</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03274014964699745</v>
+        <v>0.01932745613157749</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.06810495257377625</v>
+        <v>0.001611866056919098</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.03334558755159378</v>
+        <v>0.02767490595579147</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0003412496298551559</v>
+        <v>0.2359067648649216</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.03239023685455322</v>
+        <v>0.009840585291385651</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.03445853665471077</v>
+        <v>0.01163219567388296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.007293402217328548</v>
+        <v>0.6210363507270813</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03516604751348495</v>
+        <v>3.084881782531738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2295445501804352</v>
+        <v>0.001793771982192993</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06951360404491425</v>
+        <v>0.2168883234262466</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02395179867744446</v>
+        <v>0.7192234396934509</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4182839095592499</v>
+        <v>0.04804230108857155</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02487947978079319</v>
+        <v>0.02585422992706299</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06649186462163925</v>
+        <v>0.2220072448253632</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09383298456668854</v>
+        <v>0.2726484537124634</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004167210776358843</v>
+        <v>0.09111317992210388</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01218762714415789</v>
+        <v>2.649087905883789</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2001241445541382</v>
+        <v>0.1149931475520134</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01454978808760643</v>
+        <v>0.01689071953296661</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0872061625123024</v>
+        <v>0.6462322473526001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4507185220718384</v>
+        <v>0.06191601976752281</v>
       </c>
       <c r="P12" t="n">
-        <v>0.007330066524446011</v>
+        <v>0.2746526896953583</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03014897555112839</v>
+        <v>0.2742573022842407</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1576800942420959</v>
+        <v>0.5024678111076355</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07554249465465546</v>
+        <v>0.316215842962265</v>
       </c>
       <c r="T12" t="n">
-        <v>0.004805227741599083</v>
+        <v>0.6743816137313843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00533576775342226</v>
+        <v>0.05559059232473373</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04376285150647163</v>
+        <v>0.07103681564331055</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04660828411579132</v>
+        <v>0.003023442346602678</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04748803377151489</v>
+        <v>0.3708235025405884</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02379700168967247</v>
+        <v>0.0841631144285202</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03597615286707878</v>
+        <v>0.4974862039089203</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01804932579398155</v>
+        <v>0.1832580715417862</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0121351070702076</v>
+        <v>0.2265720963478088</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.06788494437932968</v>
+        <v>0.286051332950592</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002892180345952511</v>
+        <v>0.6189700961112976</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07847978174686432</v>
+        <v>0.1699221432209015</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.141293928027153</v>
+        <v>0.4923559129238129</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01771560870110989</v>
+        <v>0.2886625528335571</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.02753309160470963</v>
+        <v>0.2019239366054535</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.06318192929029465</v>
+        <v>0.003138527274131775</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0486745685338974</v>
+        <v>0.08031757175922394</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.02216803282499313</v>
+        <v>0.5553463101387024</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.02921179868280888</v>
+        <v>0.4050622582435608</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1432977169752121</v>
+        <v>0.005509369075298309</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00281872320920229</v>
+        <v>0.4421018362045288</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.02544962987303734</v>
+        <v>0.3801522254943848</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.04873109608888626</v>
+        <v>0.3480143547058105</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.008230666629970074</v>
+        <v>0.04988615214824677</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01530916430056095</v>
+        <v>0.06323389708995819</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.01702780276536942</v>
+        <v>0.1538877189159393</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01777815259993076</v>
+        <v>0.3592904806137085</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.124858140945435e-05</v>
+        <v>1.837326407432556</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1573255062103271</v>
+        <v>0.421075850725174</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1105959415435791</v>
+        <v>0.4424105286598206</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.06429538130760193</v>
+        <v>0.2426373064517975</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1404443979263306</v>
+        <v>0.4488123059272766</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01088030263781548</v>
+        <v>0.6983082294464111</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.02411437407135963</v>
+        <v>0.1394527852535248</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02211413905024529</v>
+        <v>0.075572669506073</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.01130703836679459</v>
+        <v>0.5105975866317749</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.04701679199934006</v>
+        <v>0.7537487149238586</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.009972400963306427</v>
+        <v>0.6288542747497559</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.03551003336906433</v>
+        <v>0.1663847863674164</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0423998236656189</v>
+        <v>0.2968908548355103</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.1620619297027588</v>
+        <v>0.2102456837892532</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.03165474906563759</v>
+        <v>0.6608889102935791</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01871742866933346</v>
+        <v>0.172759935259819</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.01799812167882919</v>
+        <v>0.1612317860126495</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01851874031126499</v>
+        <v>0.3558110892772675</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.006840579677373171</v>
+        <v>0.3719953596591949</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02090959809720516</v>
+        <v>0.0930761992931366</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.003012776374816895</v>
+        <v>0.2248188853263855</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.004127795808017254</v>
+        <v>0.4741796851158142</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.01663457043468952</v>
+        <v>0.5981764793395996</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.01411776151508093</v>
+        <v>0.3528130650520325</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.04515193402767181</v>
+        <v>0.3177075684070587</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.05182404443621635</v>
+        <v>0.1622390449047089</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.03618737310171127</v>
+        <v>0.1955883800983429</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0394352450966835</v>
+        <v>1.256551861763</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.06890827417373657</v>
+        <v>0.2652512788772583</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03513307496905327</v>
+        <v>0.1141249537467957</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.01210922375321388</v>
+        <v>0.07269394397735596</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.1678325533866882</v>
+        <v>0.1897494196891785</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.02838753722608089</v>
+        <v>0.01064217835664749</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01857928745448589</v>
+        <v>0.1087504997849464</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02651698887348175</v>
+        <v>0.007260244339704514</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.007112811785191298</v>
+        <v>0.1514151692390442</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0005948669277131557</v>
+        <v>0.5150463581085205</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.03425958752632141</v>
+        <v>0.09509006142616272</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.003251730464398861</v>
+        <v>0.1086369305849075</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.009400501847267151</v>
+        <v>0.03979034349322319</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.08237115293741226</v>
+        <v>0.01999048888683319</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.01367654837667942</v>
+        <v>0.07345014065504074</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.0182899571955204</v>
+        <v>0.08882627636194229</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.01733045466244221</v>
+        <v>0.1546290516853333</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.04755425825715065</v>
+        <v>0.6952013969421387</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.0003518909215927124</v>
+        <v>0.3589754402637482</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.09663590043783188</v>
+        <v>0.08724144846200943</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.01455008238554001</v>
+        <v>0.4057481586933136</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.06967946887016296</v>
+        <v>1.762102127075195</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.01113716326653957</v>
+        <v>0.04723547771573067</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.03606259450316429</v>
+        <v>0.1720583140850067</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.08287350833415985</v>
+        <v>0.3112317621707916</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04969772323966026</v>
+        <v>0.4167501330375671</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.01816754974424839</v>
+        <v>0.1386246234178543</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0007709194906055927</v>
+        <v>0.4838724732398987</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02488586865365505</v>
+        <v>0.2364494651556015</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.00451169814914465</v>
+        <v>0.1025603041052818</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01474069058895111</v>
+        <v>0.1890183538198471</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.09175410866737366</v>
+        <v>0.005719392560422421</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.005808865651488304</v>
+        <v>0.006334485486149788</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02522846683859825</v>
+        <v>0.071080282330513</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.01272404007613659</v>
+        <v>0.1488631218671799</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.04699679464101791</v>
+        <v>0.4762522578239441</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.005091447383165359</v>
+        <v>0.851125180721283</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.06453700363636017</v>
+        <v>0.1925594955682755</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.07873506098985672</v>
+        <v>1.168369770050049</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.09885741770267487</v>
+        <v>0.1670258790254593</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0624990351498127</v>
+        <v>0.701443612575531</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.03411790728569031</v>
+        <v>0.02113917469978333</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.03769497573375702</v>
+        <v>0.0927412360906601</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.05537742748856544</v>
+        <v>0.2115118205547333</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.03561636433005333</v>
+        <v>0.07416039705276489</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.01464769151061773</v>
+        <v>0.1637503951787949</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.009794430807232857</v>
+        <v>0.2064395844936371</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02131709828972816</v>
+        <v>0.163597047328949</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.001960254507139325</v>
+        <v>0.4565722048282623</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0295460969209671</v>
+        <v>0.04862621426582336</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01907329820096493</v>
+        <v>0.493719220161438</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.04694795235991478</v>
+        <v>0.2342701554298401</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.008894018828868866</v>
+        <v>0.01235826872289181</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.03386309742927551</v>
+        <v>0.124605804681778</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.009579270146787167</v>
+        <v>0.9700543880462646</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.02237953245639801</v>
+        <v>0.1493907570838928</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02196304127573967</v>
+        <v>0.2910878658294678</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01020926795899868</v>
+        <v>0.4136559963226318</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.03080441430211067</v>
+        <v>0.03710832446813583</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0422813817858696</v>
+        <v>0.1303586661815643</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01770578697323799</v>
+        <v>0.2775605320930481</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.05022687837481499</v>
+        <v>0.273174911737442</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.005676059983670712</v>
+        <v>0.3792506754398346</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.05561229586601257</v>
+        <v>0.3574309647083282</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.03912317752838135</v>
+        <v>0.05618356168270111</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.01274146512150764</v>
+        <v>0.1858528852462769</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0002628006041049957</v>
+        <v>0.2075646072626114</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.1081974655389786</v>
+        <v>0.03623557463288307</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.003275500144809484</v>
+        <v>0.197004109621048</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.00353510701097548</v>
+        <v>0.0829429104924202</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.02761733531951904</v>
+        <v>0.04044549912214279</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.004349022172391415</v>
+        <v>0.01246899366378784</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.04264017194509506</v>
+        <v>0.04601854830980301</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.01041640900075436</v>
+        <v>0.4821224212646484</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.01483475789427757</v>
+        <v>0.1952608823776245</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01708707213401794</v>
+        <v>0.2361821830272675</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.07586900889873505</v>
+        <v>0.2858168482780457</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.02660858631134033</v>
+        <v>0.2458271086215973</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.03784900158643723</v>
+        <v>0.2859359085559845</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.01915640383958817</v>
+        <v>0.1812542825937271</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.005148389376699924</v>
+        <v>0.1771570891141891</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01418805215507746</v>
+        <v>0.5205134153366089</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.02231249026954174</v>
+        <v>0.1287244111299515</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.007058425806462765</v>
+        <v>0.060902439057827</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.007137011736631393</v>
+        <v>0.1646067351102829</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.07577653974294662</v>
+        <v>0.08125506341457367</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.009531687945127487</v>
+        <v>0.06986752152442932</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.02248508855700493</v>
+        <v>0.0480257160961628</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.01561984792351723</v>
+        <v>0.1790652275085449</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01459099538624287</v>
+        <v>0.1302095502614975</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.005100400187075138</v>
+        <v>0.2003283500671387</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.04983460903167725</v>
+        <v>0.2531380355358124</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.001593810506165028</v>
+        <v>0.1026039496064186</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.003016872797161341</v>
+        <v>0.2017216235399246</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.02435560524463654</v>
+        <v>0.2851121425628662</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.03555706143379211</v>
+        <v>0.2983740270137787</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.01665431447327137</v>
+        <v>0.1449934989213943</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.003524299710988998</v>
+        <v>0.01918060705065727</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.1031849756836891</v>
+        <v>0.05750198662281036</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0228455513715744</v>
+        <v>0.04093743860721588</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.07455907762050629</v>
+        <v>0.3335252404212952</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01438666507601738</v>
+        <v>0.2063997983932495</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.003037694841623306</v>
+        <v>0.3416220545768738</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.1045293062925339</v>
+        <v>0.01789044588804245</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.005750621668994427</v>
+        <v>0.2188222110271454</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.007654156535863876</v>
+        <v>0.07680967450141907</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.07667002826929092</v>
+        <v>0.1382395476102829</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0637357160449028</v>
+        <v>0.487260103225708</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.03421158343553543</v>
+        <v>0.03438343480229378</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.02832650765776634</v>
+        <v>0.01862826198339462</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01803853362798691</v>
+        <v>0.1570651829242706</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.06575760245323181</v>
+        <v>0.5746109485626221</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0430261418223381</v>
+        <v>0.4971432089805603</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.02472994662821293</v>
+        <v>0.363138347864151</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.07841961830854416</v>
+        <v>0.02532966621220112</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.06212344765663147</v>
+        <v>0.1190427020192146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.006111064925789833</v>
+        <v>0.0004423977225087583</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0009272117167711258</v>
+        <v>0.002720593474805355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02132905647158623</v>
+        <v>0.001103228190913796</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01014143414795399</v>
+        <v>0.0008038835367187858</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01626184582710266</v>
+        <v>1.234703086083755e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007279145065695047</v>
+        <v>0.0001681346038822085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005604841746389866</v>
+        <v>5.426781717687845e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01829922012984753</v>
+        <v>0.0005826178239658475</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002170642372220755</v>
+        <v>0.0007358287693932652</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004276784136891365</v>
+        <v>0.0004009778203908354</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0009965538047254086</v>
+        <v>0.002035234123468399</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02445517852902412</v>
+        <v>0.0006773346103727818</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002691387664526701</v>
+        <v>0.0008397717028856277</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01914204843342304</v>
+        <v>0.0004919846542179585</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003594474401324987</v>
+        <v>0.0002769131679087877</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005160037893801928</v>
+        <v>5.04566851304844e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02142669260501862</v>
+        <v>0.0001091496451408602</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01290843915194273</v>
+        <v>0.0004270084027666599</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004243413568474352</v>
+        <v>4.670709131460171e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004469601437449455</v>
+        <v>0.000413580855820328</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00146843958646059</v>
+        <v>0.000163715667440556</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0007575316703878343</v>
+        <v>2.568276249803603e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.003147391602396965</v>
+        <v>2.474414941389114e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001935208332724869</v>
+        <v>0.0009112699190154672</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002244875766336918</v>
+        <v>0.0001216631280840375</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01286180689930916</v>
+        <v>0.0001896623871289194</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006186430342495441</v>
+        <v>0.000143599885632284</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0007701106369495392</v>
+        <v>0.0001283975871047005</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006405680440366268</v>
+        <v>0.0007151676691137254</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0002875123755075037</v>
+        <v>0.0003514423733577132</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.004347281064838171</v>
+        <v>0.000192163250176236</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.008045680820941925</v>
+        <v>0.0002007869188673794</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.001066504046320915</v>
+        <v>6.382034916896373e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.01152640022337437</v>
+        <v>0.0001579255767865106</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01233675982803106</v>
+        <v>0.0002659213496372104</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.006753046065568924</v>
+        <v>0.0001451201969757676</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.00181736727245152</v>
+        <v>0.0001853542780736461</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.003168700961396098</v>
+        <v>0.0006246585980989039</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003401361173018813</v>
+        <v>4.412811904330738e-06</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001395897939801216</v>
+        <v>0.0001417546300217509</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.01246054004877806</v>
+        <v>0.0001810684188967571</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.002348959678784013</v>
+        <v>8.769903797656298e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.000709806103259325</v>
+        <v>1.554188202135265e-06</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.000838595733512193</v>
+        <v>1.990451710298657e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.001736684469506145</v>
+        <v>0.000391546287573874</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.009070173837244511</v>
+        <v>0.0001188768219435588</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.009229103103280067</v>
+        <v>0.002328423084691167</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.007787915877997875</v>
+        <v>0.0003995274018961936</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.008898302912712097</v>
+        <v>8.608817734057084e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01488285977393389</v>
+        <v>0.0007660094415768981</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.006621001753956079</v>
+        <v>0.0002923213760368526</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0005764685338363051</v>
+        <v>0.0002997444535139948</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.00163853564299643</v>
+        <v>0.0006079791928641498</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.008017915301024914</v>
+        <v>0.0002285741793457419</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.00245210574939847</v>
+        <v>0.0001077863416867331</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.00287047540768981</v>
+        <v>0.0003140184562653303</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001604766817763448</v>
+        <v>0.0006933818804100156</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.005183854606002569</v>
+        <v>0.0003370646736584604</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0251291561871767</v>
+        <v>0.001279184129089117</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.002824811963364482</v>
+        <v>0.0005237337318249047</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001332230167463422</v>
+        <v>0.0001986755232792348</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01482098642736673</v>
+        <v>0.0001522961392765865</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001878567738458514</v>
+        <v>0.0004520810325630009</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.001113729900680482</v>
+        <v>0.0007226244197227061</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001321013085544109</v>
+        <v>0.0002240711328340694</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.005390191916376352</v>
+        <v>0.0003448037605267018</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.001510576461441815</v>
+        <v>1.068224082700908e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002911924617365003</v>
+        <v>0.001103774178773165</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.003557084128260612</v>
+        <v>0.0003407956101000309</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.005344139412045479</v>
+        <v>0.0005624489858746529</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.005892235785722733</v>
+        <v>0.0008369488641619682</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.00370380561798811</v>
+        <v>3.626850229920819e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.003422374371439219</v>
+        <v>0.0001595063804415986</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0001987252617254853</v>
+        <v>0.001099388464353979</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.009728522971272469</v>
+        <v>0.0007216322119347751</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.194549258798361e-05</v>
+        <v>0.0001738216378726065</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0008786043617874384</v>
+        <v>0.0008294074796140194</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0003274559858255088</v>
+        <v>0.0007744083995930851</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.001234500668942928</v>
+        <v>0.0003060206072404981</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.006720350589603186</v>
+        <v>4.071644798386842e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0003585127415135503</v>
+        <v>0.0002687209052965045</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0007817543810233474</v>
+        <v>0.0002113850496243685</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.003702972317114472</v>
+        <v>0.0004899601917713881</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.003048280486837029</v>
+        <v>2.647373548825271e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0004978779470548034</v>
+        <v>0.0001247965556103736</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.004363186657428741</v>
+        <v>0.0001963181712199003</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.001746287802234292</v>
+        <v>0.0001289905194425955</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.001635477878153324</v>
+        <v>0.0002441697288304567</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0003428077034186572</v>
+        <v>0.0001010914274957031</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0005568381166085601</v>
+        <v>0.0001843692880356684</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0001250484492629766</v>
+        <v>0.0005792363663204014</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.004954055417329073</v>
+        <v>0.0005459861131384969</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.005187049973756075</v>
+        <v>0.0002599525905679911</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.001823114464059472</v>
+        <v>0.0003621659707278013</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.007314614485949278</v>
+        <v>0.0004079086647834629</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.008350865915417671</v>
+        <v>0.0001468673290219158</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.005385480355471373</v>
+        <v>8.145933679770678e-05</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.001353716477751732</v>
+        <v>3.362729330547154e-06</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.007511816918849945</v>
+        <v>0.000269106007181108</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0001350002130493522</v>
+        <v>0.0002351995935896412</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.004623023793101311</v>
+        <v>0.000414143200032413</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00410895049571991</v>
+        <v>5.038538802182302e-06</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0002991469809785485</v>
+        <v>0.000126938073663041</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.006286014337092638</v>
+        <v>0.000186411605682224</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.003047718899324536</v>
+        <v>0.0001813182752812281</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.001308622071519494</v>
+        <v>0.0002666646905709058</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.001445506466552615</v>
+        <v>2.549780037952587e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001209747570101172</v>
+        <v>0.0001980165397981182</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01014576014131308</v>
+        <v>0.0001504468091297895</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.00172473955899477</v>
+        <v>0.0006821585702709854</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.003507907968014479</v>
+        <v>0.0002645894710440189</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.004031120333820581</v>
+        <v>0.001001633238047361</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.007344005163758993</v>
+        <v>0.001208543428219855</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.007569556590169668</v>
+        <v>7.726356125203893e-05</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001219468074850738</v>
+        <v>0.0001139372398029082</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.001719040330499411</v>
+        <v>0.0003297520743217319</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0007248301990330219</v>
+        <v>0.000227872165851295</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.00184817030094564</v>
+        <v>0.0001336927380179986</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.003692710073664784</v>
+        <v>0.000146778256748803</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0005876186769455671</v>
+        <v>2.371630762354471e-05</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0004379184683784842</v>
+        <v>0.0003387305187061429</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01023616082966328</v>
+        <v>0.0001936327898874879</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.003039558418095112</v>
+        <v>9.623401274438947e-05</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.001128767733462155</v>
+        <v>4.124718543607742e-06</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.009863128885626793</v>
+        <v>6.807074532844126e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0001145596615970135</v>
+        <v>0.0002454408095218241</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.003060425166040659</v>
+        <v>0.0002593372773844749</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0004545620176941156</v>
+        <v>0.0002013613993767649</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.002651138696819544</v>
+        <v>7.545740663772449e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.003052821848541498</v>
+        <v>0.0001403209316777065</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0009975676657631993</v>
+        <v>0.0005185318877920508</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.003738341853022575</v>
+        <v>7.204434950836003e-07</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001871173037216067</v>
+        <v>0.0001608385937288404</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.001449179020710289</v>
+        <v>0.0003720436943694949</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.001179278828203678</v>
+        <v>9.326876170234755e-05</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.008794763125479221</v>
+        <v>0.0001450067211408168</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.002124537480995059</v>
+        <v>0.0003073281841352582</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.00282695610076189</v>
+        <v>4.001444176537916e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.004137752112001181</v>
+        <v>0.000173736727447249</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.006714539136737585</v>
+        <v>0.000158255803398788</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.003982974216341972</v>
+        <v>0.0001615860819583759</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.002011270495131612</v>
+        <v>0.0004516593762673438</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.003664650721475482</v>
+        <v>0.0001602527336217463</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.007338087074458599</v>
+        <v>0.0002287793322466314</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001400714972987771</v>
+        <v>3.009736974490806e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.009345836006104946</v>
+        <v>0.000520499364938587</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.000233429207582958</v>
+        <v>0.0002027924929279834</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.003989876247942448</v>
+        <v>0.0001073276944225654</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.003854106180369854</v>
+        <v>8.699685167812277e-06</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0006369708571583033</v>
+        <v>0.000420468277297914</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.002322718966752291</v>
+        <v>0.0005507127498276532</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.008846916258335114</v>
+        <v>0.0004111688758712262</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0007969112484715879</v>
+        <v>0.0008643317851237953</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.00126441684551537</v>
+        <v>0.0001737738639349118</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.003774168435484171</v>
+        <v>0.0005327442777343094</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.003766402835026383</v>
+        <v>9.918215801008046e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.001732626813463867</v>
+        <v>0.0001868357940111309</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.007117816712707281</v>
+        <v>9.251331357518211e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.001302866148762405</v>
+        <v>0.0001941703085321933</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.001521627185866237</v>
+        <v>0.0002932593051809818</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.002033268334344029</v>
+        <v>5.282607162371278e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001652273931540549</v>
+        <v>0.0001680937421042472</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.007165835704654455</v>
+        <v>0.0003446410410106182</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.003373631741851568</v>
+        <v>0.0002454308851156384</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.007799482904374599</v>
+        <v>0.0001607360027264804</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001806652173399925</v>
+        <v>0.0003151755954604596</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.004169297404587269</v>
+        <v>0.0006070555537007749</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.005935521330684423</v>
+        <v>8.220413292292506e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.006977618671953678</v>
+        <v>0.000309436465613544</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0001588522573001683</v>
+        <v>0.000168986662174575</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.00466232979670167</v>
+        <v>0.0004024838854093105</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.01936864480376244</v>
+        <v>0.0003062065807171166</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.008538743481040001</v>
+        <v>0.0004432300920598209</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.005826106294989586</v>
+        <v>0.0004655091906897724</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.007001014426350594</v>
+        <v>0.0001429999829269946</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004838688764721155</v>
+        <v>9.413560474058613e-05</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0006109217647463083</v>
+        <v>0.0006545752985402942</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.002475374843925238</v>
+        <v>0.0001778381993062794</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0001025023520924151</v>
+        <v>0.0007341532618738711</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.007044512778520584</v>
+        <v>0.0003576233284547925</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.007292153313755989</v>
+        <v>0.0003320243558846414</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.005110383499413729</v>
+        <v>0.0001905409153550863</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.002527627861127257</v>
+        <v>0.0001745418703649193</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.00290612829849124</v>
+        <v>0.0001764562912285328</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.002550808247178793</v>
+        <v>0.0001549720327602699</v>
       </c>
       <c r="GD13" t="n">
-        <v>6.804522126913071e-05</v>
+        <v>0.0005348482518456876</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.00263509782962501</v>
+        <v>0.0007659352850168943</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0002702214987948537</v>
+        <v>0.0006436946569010615</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.003097311593592167</v>
+        <v>0.0002628852962516248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03622373938560486</v>
+        <v>0.005096462089568377</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1832724958658218</v>
+        <v>0.01452082488685846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2863394320011139</v>
+        <v>0.0009257447673007846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05246721208095551</v>
+        <v>0.001674993894994259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04791027307510376</v>
+        <v>0.000941739184781909</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02569789066910744</v>
+        <v>0.006340477615594864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01429883670061827</v>
+        <v>0.003392074722796679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04515787959098816</v>
+        <v>0.0003247043641749769</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1019697412848473</v>
+        <v>0.001472840318456292</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06735077500343323</v>
+        <v>0.004337824881076813</v>
       </c>
       <c r="K14" t="n">
-        <v>0.202019140124321</v>
+        <v>0.01023000199347734</v>
       </c>
       <c r="L14" t="n">
-        <v>0.310661107301712</v>
+        <v>0.001674646977335215</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07110584527254105</v>
+        <v>0.001156921032816172</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06444800645112991</v>
+        <v>0.002177807502448559</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01971423998475075</v>
+        <v>0.005850270390510559</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04574102908372879</v>
+        <v>0.002916292985901237</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03248917311429977</v>
+        <v>0.002197500318288803</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1324045211076736</v>
+        <v>0.002765697194263339</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01819278858602047</v>
+        <v>0.0001545804407214746</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0721597895026207</v>
+        <v>0.002264206996187568</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05047998577356339</v>
+        <v>0.002255890984088182</v>
       </c>
       <c r="V14" t="n">
-        <v>0.005480723455548286</v>
+        <v>0.001442861859686673</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05603631585836411</v>
+        <v>0.0009198497282341123</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01824437826871872</v>
+        <v>0.004342800937592983</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04672467336058617</v>
+        <v>0.001115962048061192</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04642882570624352</v>
+        <v>0.000912324758246541</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.003177216276526451</v>
+        <v>0.001193194766528904</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04123698174953461</v>
+        <v>0.0006436843541450799</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1181911826133728</v>
+        <v>0.002828273689374328</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001960854977369308</v>
+        <v>0.002144695026800036</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02068447507917881</v>
+        <v>0.0005108289187774062</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05335217341780663</v>
+        <v>0.0007444171933457255</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.02601378411054611</v>
+        <v>0.001768668531440198</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.07839685678482056</v>
+        <v>0.001835268456488848</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0375332236289978</v>
+        <v>0.0003322549746371806</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.09345012158155441</v>
+        <v>0.0007006722153164446</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.006823625415563583</v>
+        <v>0.0008383343229070306</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01821013912558556</v>
+        <v>0.002536492887884378</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.06481753289699554</v>
+        <v>0.0005993495578877628</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.02859459444880486</v>
+        <v>0.0004095047479495406</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.005307664629071951</v>
+        <v>5.092177161714062e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.004592434503138065</v>
+        <v>0.00248913443647325</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.01602814719080925</v>
+        <v>0.0004866714880336076</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.01695520058274269</v>
+        <v>0.0005315921152941883</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0266887005418539</v>
+        <v>0.001201152219437063</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0127525832504034</v>
+        <v>0.001150363241322339</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.06934824585914612</v>
+        <v>0.009288445115089417</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.108092725276947</v>
+        <v>0.0002213424595538527</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0851660817861557</v>
+        <v>0.0002153426175937057</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.09670732170343399</v>
+        <v>0.002624263055622578</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.02925285883247852</v>
+        <v>0.0001763357140589505</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.02343617007136345</v>
+        <v>0.0003574290312826633</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.008556962013244629</v>
+        <v>0.0003757768427021801</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0244966596364975</v>
+        <v>0.001342804986052215</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.03678666800260544</v>
+        <v>0.002324854955077171</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.08575291186571121</v>
+        <v>0.003448975505307317</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.06738636642694473</v>
+        <v>0.001640480360947549</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001384500414133072</v>
+        <v>0.0005370526341721416</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1459142416715622</v>
+        <v>0.002616359619423747</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.02410526946187019</v>
+        <v>0.004260574001818895</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.005553370341658592</v>
+        <v>0.00174826558213681</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.04069231450557709</v>
+        <v>0.001956050982698798</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.008269943296909332</v>
+        <v>0.002191226929426193</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.02989933267235756</v>
+        <v>0.00123516982421279</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.003896736539900303</v>
+        <v>0.001910330378450453</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.04073405265808105</v>
+        <v>0.0009344645659439266</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.04724058881402016</v>
+        <v>0.0006811257917433977</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02391668781638145</v>
+        <v>0.001672972459346056</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.06074722483754158</v>
+        <v>0.00350512657314539</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.03358667343854904</v>
+        <v>0.001283998950384557</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.04073088616132736</v>
+        <v>0.002212209161370993</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.00735204853117466</v>
+        <v>0.002255439525470138</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.02334512770175934</v>
+        <v>0.0003824165905825794</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.07518438994884491</v>
+        <v>0.006030614953488111</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0991620272397995</v>
+        <v>0.0008952255011536181</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.05447432398796082</v>
+        <v>0.002131470246240497</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.02450918592512608</v>
+        <v>0.001102924579754472</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.01948820427060127</v>
+        <v>0.002735476708039641</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.002726573497056961</v>
+        <v>0.0008960614795796573</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.07837595790624619</v>
+        <v>0.0006349622271955013</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.03873602300882339</v>
+        <v>0.0005678322049789131</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.004023361951112747</v>
+        <v>0.001242568250745535</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0328056700527668</v>
+        <v>0.001829162007197738</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.04883752018213272</v>
+        <v>0.0003689855802804232</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.01581908389925957</v>
+        <v>0.000632608775049448</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0002240301109850407</v>
+        <v>0.001404861453920603</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.01696043089032173</v>
+        <v>0.001540221739560366</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.009958344511687756</v>
+        <v>0.0001039346243487671</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.002686930820345879</v>
+        <v>0.0003173333825543523</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.02749096602201462</v>
+        <v>8.048550807870924e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.04965044185519218</v>
+        <v>0.0007563268882222474</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0027364999987185</v>
+        <v>0.001541835255920887</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.04239704459905624</v>
+        <v>0.0009865931933745742</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.005870690103620291</v>
+        <v>0.0002072507631964982</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.09106311202049255</v>
+        <v>0.003076067892834544</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.02868373319506645</v>
+        <v>0.0004860771005041897</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.007970252074301243</v>
+        <v>0.00154484563972801</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.05831943079829216</v>
+        <v>0.0009016319527290761</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.03731515631079674</v>
+        <v>0.001209879177622497</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.00670455489307642</v>
+        <v>0.0006116810254752636</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.02988399937748909</v>
+        <v>0.001975019229575992</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.04803028702735901</v>
+        <v>0.0004438167670741677</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.02750208973884583</v>
+        <v>0.0006268426077440381</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02910387143492699</v>
+        <v>0.001020957133732736</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.01612580195069313</v>
+        <v>0.002842637477442622</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.009271696209907532</v>
+        <v>0.0002141429140465334</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.009566164575517178</v>
+        <v>0.0002919842081610113</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.01845323666930199</v>
+        <v>1.819421595428139e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.04826433584094048</v>
+        <v>0.001530601643025875</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.03112712502479553</v>
+        <v>0.004220990929752588</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.001706657931208611</v>
+        <v>0.001858257572166622</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.03568725660443306</v>
+        <v>0.002234314568340778</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.00728854164481163</v>
+        <v>0.004928800277411938</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.01889000833034515</v>
+        <v>0.00473423209041357</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.009555371478199959</v>
+        <v>0.000317342288326472</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.08084693551063538</v>
+        <v>2.563487214501947e-06</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.02717069163918495</v>
+        <v>0.002382416510954499</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.02893773838877678</v>
+        <v>0.0004794494598172605</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.02782154828310013</v>
+        <v>2.414494520053267e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.008321868255734444</v>
+        <v>0.0006338655948638916</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.04083871096372604</v>
+        <v>0.00195042381528765</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.06007886677980423</v>
+        <v>1.094619801733643e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.006227096542716026</v>
+        <v>0.0003616630856413394</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.03872654587030411</v>
+        <v>0.0003972184204030782</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.02040987461805344</v>
+        <v>0.001256697112694383</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.009920984506607056</v>
+        <v>0.001971959136426449</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.04581659287214279</v>
+        <v>0.0006800915580242872</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.007056760601699352</v>
+        <v>0.001162219210527837</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.001831481698900461</v>
+        <v>0.001226567663252354</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.008608683943748474</v>
+        <v>0.0007439870969392359</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.07588616758584976</v>
+        <v>0.0003576047893147916</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.01869275607168674</v>
+        <v>0.00253986893221736</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.04474258422851562</v>
+        <v>6.668528658337891e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03690516948699951</v>
+        <v>0.0007867139647714794</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.009893754497170448</v>
+        <v>0.001415924169123173</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.01255260594189167</v>
+        <v>0.0001333153049927205</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.007166754454374313</v>
+        <v>0.0005641237366944551</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.04781270772218704</v>
+        <v>0.000407014274969697</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.04403378814458847</v>
+        <v>0.001468521310016513</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.001163782551884651</v>
+        <v>0.001137910527177155</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.01955323480069637</v>
+        <v>0.003508308669552207</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.007714720442891121</v>
+        <v>0.0004830615362152457</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.02645550481975079</v>
+        <v>4.760501178679988e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.01642259210348129</v>
+        <v>0.0002444314595777541</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0378350131213665</v>
+        <v>0.0005322230281308293</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.06758880615234375</v>
+        <v>0.001976479310542345</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.02339140884578228</v>
+        <v>0.0003987998061347753</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.04348991811275482</v>
+        <v>0.0009628940606489778</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.02760129235684872</v>
+        <v>0.00125376577489078</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.01374770142138004</v>
+        <v>0.00365735124796629</v>
       </c>
       <c r="EU14" t="n">
-        <v>2.477318048477173e-06</v>
+        <v>0.000104966398794204</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0002829728182405233</v>
+        <v>0.002013314748182893</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.04307352751493454</v>
+        <v>0.0009072042885236442</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.01681885682046413</v>
+        <v>0.0008201942546293139</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.02298692613840103</v>
+        <v>0.002275896025821567</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.04793220013380051</v>
+        <v>0.0003638849884737283</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.02213906683027744</v>
+        <v>0.0008555224630981684</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.02780996263027191</v>
+        <v>0.001872364897280931</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.001217282377183437</v>
+        <v>0.002296597231179476</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.004604246933013201</v>
+        <v>9.906268678605556e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.005548789165914059</v>
+        <v>0.0002030163304880261</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.02809764631092548</v>
+        <v>0.0002601180167403072</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.009849594905972481</v>
+        <v>4.1089893784374e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.01767949946224689</v>
+        <v>0.000905168941244483</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.08339284360408783</v>
+        <v>0.0001835149305406958</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.01837219297885895</v>
+        <v>0.001673851627856493</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.003174251178279519</v>
+        <v>0.001387950265780091</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.03160834312438965</v>
+        <v>0.001385065610520542</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.04455964639782906</v>
+        <v>0.001567155006341636</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.008609532378613949</v>
+        <v>0.0004149394808337092</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.01874793507158756</v>
+        <v>0.0008589130593463778</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.1088722422719002</v>
+        <v>0.001662649912759662</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.03309660404920578</v>
+        <v>0.003932030405849218</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.05645011365413666</v>
+        <v>0.00126069167163223</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.01599440351128578</v>
+        <v>0.002149239415302873</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.03919101506471634</v>
+        <v>0.000188711826922372</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.04894733056426048</v>
+        <v>0.0007708329358138144</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0008814428001642227</v>
+        <v>0.0007451046258211136</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.02001125738024712</v>
+        <v>0.001742690103128552</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.1079227849841118</v>
+        <v>0.001231344416737556</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.02759101614356041</v>
+        <v>0.001220005331560969</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0153594221919775</v>
+        <v>0.001132052508182824</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.04585276171565056</v>
+        <v>0.0004679912817664444</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.06661787629127502</v>
+        <v>0.0008807388367131352</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.09292397648096085</v>
+        <v>0.007243209518492222</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.009367097169160843</v>
+        <v>0.001765634515322745</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.01795622706413269</v>
+        <v>0.005996008403599262</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.005448679439723492</v>
+        <v>0.000126754748634994</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.02365888655185699</v>
+        <v>0.00129481207113713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.007144897244870663</v>
+        <v>5.398706889536697e-06</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0159250870347023</v>
+        <v>0.0001701334986137226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04804601892828941</v>
+        <v>2.589160430943593e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04467373713850975</v>
+        <v>5.97347752773203e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01364159863442183</v>
+        <v>3.953740088036284e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04233280196785927</v>
+        <v>3.02100415865425e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006591910496354103</v>
+        <v>8.107529720291495e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007475493010133505</v>
+        <v>3.872156867146259e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02321950346231461</v>
+        <v>4.353209988039453e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001252925721928477</v>
+        <v>5.960046109976247e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007841656915843487</v>
+        <v>0.0001316095440415666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05094541609287262</v>
+        <v>1.020063245960046e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03559393808245659</v>
+        <v>6.175755697768182e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03213424608111382</v>
+        <v>3.867164923576638e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02706104889512062</v>
+        <v>2.195417255279608e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001393025158904493</v>
+        <v>6.967773515498266e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01465238351374865</v>
+        <v>1.646612145123072e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0228373296558857</v>
+        <v>6.034300895407796e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00236237864010036</v>
+        <v>5.551737558562309e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>4.967278800904751e-05</v>
+        <v>4.775061825057492e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004371654242277145</v>
+        <v>6.863966518722009e-06</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01349574513733387</v>
+        <v>2.634279007907026e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01829547248780727</v>
+        <v>4.581758184940554e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.007626505568623543</v>
+        <v>2.880063948396128e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0039266562089324</v>
+        <v>7.004196049820166e-07</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004179189912974834</v>
+        <v>1.640043956285808e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001493316609412432</v>
+        <v>7.679835107410327e-06</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01139261201024055</v>
+        <v>2.596399826870766e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.00735510466620326</v>
+        <v>3.851551082334481e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01335208304226398</v>
+        <v>1.009042898658663e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.008220717310905457</v>
+        <v>1.225923824677011e-06</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01870002783834934</v>
+        <v>3.997187377535738e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.002472095657140017</v>
+        <v>1.853098001447506e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001134139951318502</v>
+        <v>1.783665197763185e-07</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.001156954560428858</v>
+        <v>7.278834345925134e-06</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.004023387562483549</v>
+        <v>2.591552402009256e-06</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.00987332034856081</v>
+        <v>2.217720611952245e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.004572859033942223</v>
+        <v>1.081664504454238e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.01034178957343102</v>
+        <v>2.40712165577861e-06</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.006115575321018696</v>
+        <v>1.520090154372156e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.007954330183565617</v>
+        <v>6.966692126297858e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.01003338675945997</v>
+        <v>1.546121893625241e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0007752646342851222</v>
+        <v>7.663322321604937e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.002397805918008089</v>
+        <v>1.626734956516884e-06</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.005599368363618851</v>
+        <v>5.745593171013752e-06</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.01485655084252357</v>
+        <v>2.727833089011256e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.02338313870131969</v>
+        <v>0.0001280023425351828</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.02045678161084652</v>
+        <v>1.610647586858249e-06</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01148437988013029</v>
+        <v>3.497651778161526e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.003124437760561705</v>
+        <v>8.343131412402727e-06</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003091637743636966</v>
+        <v>2.138652234862093e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.004530652426183224</v>
+        <v>4.208235623082146e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.002145333448424935</v>
+        <v>2.896545993280597e-06</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.008963738568127155</v>
+        <v>4.118751348869409e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.002443972276523709</v>
+        <v>3.854059286823031e-06</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.006341643631458282</v>
+        <v>5.063760909251869e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.01970358192920685</v>
+        <v>3.082049079239368e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.02150321379303932</v>
+        <v>1.691468969511334e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.00445449398830533</v>
+        <v>1.117909414460883e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.02147125080227852</v>
+        <v>1.473100928706117e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.004227847792208195</v>
+        <v>2.142011726391502e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.009072019718587399</v>
+        <v>2.311714524694253e-06</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0002061622217297554</v>
+        <v>1.149401850852882e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.005561604630202055</v>
+        <v>9.660508112574462e-06</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01558560784906149</v>
+        <v>3.921624374925159e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.003853830974549055</v>
+        <v>2.557226616772823e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.00816026609390974</v>
+        <v>2.281614251842257e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01793679594993591</v>
+        <v>6.241426308406517e-05</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.007293211296200752</v>
+        <v>1.409505784977227e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.002113020047545433</v>
+        <v>7.12264773028437e-06</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.001080641057342291</v>
+        <v>1.359271118417382e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.004586546681821346</v>
+        <v>3.147225015709409e-06</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0161273293197155</v>
+        <v>1.177735884994036e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.002455041510984302</v>
+        <v>6.026444316376001e-05</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.01295377127826214</v>
+        <v>2.834707265719771e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.02280040457844734</v>
+        <v>2.96578582492657e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01184149924665689</v>
+        <v>1.138834795710864e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.01684237644076347</v>
+        <v>2.376735028519761e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.005556866992264986</v>
+        <v>1.785390850272961e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.001790821552276611</v>
+        <v>1.688887277850881e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0141824446618557</v>
+        <v>1.327678091911366e-07</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.01045339927077293</v>
+        <v>4.959612851962447e-06</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.003688353346660733</v>
+        <v>3.449357609497383e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.01037328131496906</v>
+        <v>2.386523192399181e-06</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.008234325796365738</v>
+        <v>9.015521754918154e-06</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.005834728479385376</v>
+        <v>1.646201212679443e-06</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.01062369160354137</v>
+        <v>3.402836910026963e-06</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001616527908481658</v>
+        <v>1.373212671751389e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.00338834011927247</v>
+        <v>2.201593360950937e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.003902582451701164</v>
+        <v>6.812284709667438e-07</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.00603540800511837</v>
+        <v>3.954713611165062e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.003698545042425394</v>
+        <v>5.562650767387822e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.006047466769814491</v>
+        <v>1.298072675126605e-06</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0148748904466629</v>
+        <v>4.907263246423099e-06</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.008871456608176231</v>
+        <v>6.481770833488554e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.02189461514353752</v>
+        <v>3.48960020346567e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.004579902626574039</v>
+        <v>1.309306207986083e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.01831981912255287</v>
+        <v>9.436894288228359e-06</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001334013417363167</v>
+        <v>2.528785444155801e-05</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.009732406586408615</v>
+        <v>7.620062206115108e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.005368458572775126</v>
+        <v>2.67479208559962e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0104867797344923</v>
+        <v>1.108016567741288e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.007752349600195885</v>
+        <v>1.643181894905865e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.002806420205160975</v>
+        <v>4.214321904782992e-07</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.01163371745496988</v>
+        <v>2.519215513530071e-06</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0001855400041677058</v>
+        <v>1.160779629572062e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.002865500282496214</v>
+        <v>3.207506551916595e-06</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.004793468397110701</v>
+        <v>1.276031298402813e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.01368417218327522</v>
+        <v>1.640818481973838e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.01031752675771713</v>
+        <v>9.595372102921829e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.00535919051617384</v>
+        <v>2.943810795841273e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00514669343829155</v>
+        <v>1.878701004898176e-05</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01154665090143681</v>
+        <v>1.936489024956245e-05</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.006046166643500328</v>
+        <v>2.270353979838546e-05</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.0009427650365978479</v>
+        <v>1.422186869604047e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.009459538385272026</v>
+        <v>1.113202324631857e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.01284994464367628</v>
+        <v>2.498074718459975e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.006522295996546745</v>
+        <v>9.043717000167817e-06</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.001856001908890903</v>
+        <v>3.346415178384632e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0006873970851302147</v>
+        <v>8.788509148871526e-06</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.00343155674636364</v>
+        <v>1.063553827407304e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.01351965591311455</v>
+        <v>6.949869657546515e-06</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.01417742669582367</v>
+        <v>9.174596925731748e-06</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.003531299065798521</v>
+        <v>1.840869481384289e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.002205495722591877</v>
+        <v>7.892111170804128e-06</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.008365252986550331</v>
+        <v>8.793030247034039e-06</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.002130597596988082</v>
+        <v>8.759634511079639e-07</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.009852845221757889</v>
+        <v>2.052308991551399e-05</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.005326978396624327</v>
+        <v>5.000496912543895e-06</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.00295084435492754</v>
+        <v>1.439155767002376e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.008385405875742435</v>
+        <v>2.786322511383332e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.006642397493124008</v>
+        <v>1.596896618138999e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001533100847154856</v>
+        <v>6.386061613739002e-06</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.00402232026681304</v>
+        <v>1.667302285568439e-06</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.001015795511193573</v>
+        <v>4.367196197563317e-06</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.01103212870657444</v>
+        <v>1.61407733685337e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.007086342666298151</v>
+        <v>9.502798093308229e-06</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.01279820129275322</v>
+        <v>2.949432428067666e-06</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01067682076245546</v>
+        <v>3.527346780174412e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.002654070034623146</v>
+        <v>8.819518370728474e-06</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.01208335533738136</v>
+        <v>3.343410298839444e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0002501617127563804</v>
+        <v>1.01830610219622e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.003791205119341612</v>
+        <v>6.992698899921379e-07</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.003798920195549726</v>
+        <v>6.464650255111337e-07</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.009688489139080048</v>
+        <v>1.651973252592143e-05</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.009316710755228996</v>
+        <v>6.166460480017122e-06</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.002693357644602656</v>
+        <v>1.742235144774895e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.00528192613273859</v>
+        <v>1.575316673552152e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01039804611355066</v>
+        <v>1.116227576858364e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.009914274327456951</v>
+        <v>2.656683136592619e-06</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001815062249079347</v>
+        <v>4.176684342382941e-06</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.003555855480954051</v>
+        <v>1.480334617554036e-06</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0007684146985411644</v>
+        <v>2.000642325583613e-06</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.009479226544499397</v>
+        <v>7.670948434679303e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.00665022199973464</v>
+        <v>2.735355337790679e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.01028745342046022</v>
+        <v>4.761916898132768e-06</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.006881654728204012</v>
+        <v>1.154731580754742e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.005072532221674919</v>
+        <v>2.18358604797686e-06</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0121106319129467</v>
+        <v>6.509535069199046e-06</v>
       </c>
       <c r="FD15" t="n">
-        <v>8.437367068836465e-05</v>
+        <v>1.224784136866219e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.004436775110661983</v>
+        <v>6.595845661649946e-06</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.004464199766516685</v>
+        <v>5.355789198802086e-07</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.002025966765359044</v>
+        <v>9.506155947747175e-06</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.00402218010276556</v>
+        <v>3.160843334626406e-06</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.01124648284167051</v>
+        <v>4.515286491368897e-06</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.003621242241933942</v>
+        <v>1.14582526293816e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.006409319117665291</v>
+        <v>3.039612420252524e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.004334927536547184</v>
+        <v>1.986770439543761e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.001488317968323827</v>
+        <v>7.340208867390174e-06</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0001488334964960814</v>
+        <v>1.026860081765335e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.003723304718732834</v>
+        <v>4.279809218132868e-06</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.007159494794905186</v>
+        <v>1.188237183669116e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.008405478671193123</v>
+        <v>2.219252928625792e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.007353964261710644</v>
+        <v>1.195840013679117e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.009620948694646358</v>
+        <v>3.646427285275422e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.006576417945325375</v>
+        <v>7.653775355720427e-06</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.01423071790486574</v>
+        <v>1.062970795828733e-06</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.006502749864012003</v>
+        <v>2.879111343645491e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.009752450510859489</v>
+        <v>3.25471737596672e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.007948770187795162</v>
+        <v>8.425331543548964e-08</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.007688887417316437</v>
+        <v>7.04646845406387e-06</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0046665552072227</v>
+        <v>2.096716161759105e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.003977201879024506</v>
+        <v>1.667060132604092e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.005780813284218311</v>
+        <v>2.046216832241043e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.006844096351414919</v>
+        <v>8.850494850776158e-06</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.002091803820803761</v>
+        <v>1.391830664942972e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0004680873826146126</v>
+        <v>9.219809726346284e-06</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.0002302506472915411</v>
+        <v>2.388520806562155e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01645584218204021</v>
+        <v>2.994071337525384e-06</v>
       </c>
     </row>
     <row r="16">
@@ -9539,571 +9539,571 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.897836722899228e-05</v>
+        <v>0.003691310063004494</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002991338493302464</v>
+        <v>0.03285301849246025</v>
       </c>
       <c r="C17" t="n">
-        <v>1.069103018380702e-05</v>
+        <v>0.009637106209993362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0006195760797709227</v>
+        <v>0.00437565054744482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007037766627036035</v>
+        <v>0.06435952335596085</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002148839877918363</v>
+        <v>0.009351183660328388</v>
       </c>
       <c r="G17" t="n">
-        <v>9.528839291306213e-05</v>
+        <v>0.0246356800198555</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009484073962084949</v>
+        <v>0.01915368624031544</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001157316291937605</v>
+        <v>0.009005802683532238</v>
       </c>
       <c r="J17" t="n">
-        <v>8.729315595701337e-06</v>
+        <v>0.009018959477543831</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002965090563520789</v>
+        <v>0.0187781285494566</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001290410291403532</v>
+        <v>0.004888697527348995</v>
       </c>
       <c r="M17" t="n">
-        <v>6.150491390144452e-05</v>
+        <v>0.003046846017241478</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0004126033163629472</v>
+        <v>0.05590394511818886</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002241527661681175</v>
+        <v>0.006198430433869362</v>
       </c>
       <c r="P17" t="n">
-        <v>0.000486221571918577</v>
+        <v>0.01239414885640144</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0009039079304784536</v>
+        <v>0.02138173580169678</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0003210144932381809</v>
+        <v>0.01504057459533215</v>
       </c>
       <c r="S17" t="n">
-        <v>0.000367350789019838</v>
+        <v>0.005156927742063999</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002240384055767208</v>
+        <v>0.002546505304053426</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001694468955975026</v>
+        <v>0.0045714913867414</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0003132901329081506</v>
+        <v>0.009894684888422489</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0005053854547441006</v>
+        <v>0.02680009044706821</v>
       </c>
       <c r="X17" t="n">
-        <v>8.022472320590168e-05</v>
+        <v>0.004868544638156891</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0003593087894842029</v>
+        <v>0.009719434194266796</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.239244738826528e-05</v>
+        <v>0.003615378635004163</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0005810429574921727</v>
+        <v>0.0004398580640554428</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0002019310195464641</v>
+        <v>0.00203522783704102</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.001055482774972916</v>
+        <v>0.007363473065197468</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.787106445292011e-05</v>
+        <v>0.0009932585526257753</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.463423339184374e-06</v>
+        <v>0.01017113402485847</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0003790953196585178</v>
+        <v>0.007476140279322863</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.660240327008069e-05</v>
+        <v>0.006316661834716797</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0001012102438835427</v>
+        <v>0.00150047882925719</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0003159842453896999</v>
+        <v>0.004303152672946453</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0003855551476590335</v>
+        <v>0.005069179460406303</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0001774693664629012</v>
+        <v>0.001620264491066337</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0004486344405449927</v>
+        <v>0.01499222312122583</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.054531771340407e-05</v>
+        <v>0.006326977163553238</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0003628273261711001</v>
+        <v>0.01360508985817432</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.641376679297537e-05</v>
+        <v>0.002340633422136307</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0004524294345173985</v>
+        <v>0.008510024286806583</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.623241380206309e-05</v>
+        <v>0.006050919182598591</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0001224566221935675</v>
+        <v>0.0006069489754736423</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0001008475592243485</v>
+        <v>0.0001997650979319587</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0002441795077174902</v>
+        <v>0.0004948361311107874</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.001466989400796592</v>
+        <v>0.02167940884828568</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.348643753677607e-06</v>
+        <v>0.005355491302907467</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0004482947988435626</v>
+        <v>0.00832027941942215</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0006690092850476503</v>
+        <v>0.03962846100330353</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.00102943042293191</v>
+        <v>0.01033537741750479</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0005070088081993163</v>
+        <v>0.009901511482894421</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0005107128527015448</v>
+        <v>0.006248476915061474</v>
       </c>
       <c r="BB17" t="n">
-        <v>7.805746281519532e-05</v>
+        <v>0.005526914726942778</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0007563862600363791</v>
+        <v>0.002285311231389642</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0008762963698245585</v>
+        <v>0.0004603606648743153</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0001832269481383264</v>
+        <v>0.01264334563165903</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0005356511101126671</v>
+        <v>0.02280539087951183</v>
       </c>
       <c r="BG17" t="n">
-        <v>7.803008338669315e-05</v>
+        <v>0.04522626847028732</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0004633522476069629</v>
+        <v>0.0004514867905527353</v>
       </c>
       <c r="BI17" t="n">
-        <v>9.41132238949649e-05</v>
+        <v>0.00770110497251153</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.000233574362937361</v>
+        <v>0.01685077138245106</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0004874242004007101</v>
+        <v>0.003678599605336785</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0002763129305094481</v>
+        <v>0.008036239072680473</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0002149078354705125</v>
+        <v>0.01008350774645805</v>
       </c>
       <c r="BN17" t="n">
-        <v>8.532911306247115e-05</v>
+        <v>0.009946098551154137</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0007935909670777619</v>
+        <v>0.01311728917062283</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0003671983722597361</v>
+        <v>0.01370138954371214</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.0007136014755815268</v>
+        <v>0.006074828561395407</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0003215215401723981</v>
+        <v>0.01077057048678398</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.000440687668742612</v>
+        <v>0.01346674375236034</v>
       </c>
       <c r="BT17" t="n">
-        <v>9.419655543752015e-05</v>
+        <v>0.0005680351750925183</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0001220147532876581</v>
+        <v>0.003080518217757344</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0006253194878809154</v>
+        <v>0.02176864817738533</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0001962462411029264</v>
+        <v>0.004500612150877714</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.000344256084645167</v>
+        <v>0.000400289602112025</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.0001039877170114778</v>
+        <v>0.02357691898941994</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.001124730100855231</v>
+        <v>0.005284410435706377</v>
       </c>
       <c r="CA17" t="n">
-        <v>9.3361537437886e-05</v>
+        <v>0.004810811951756477</v>
       </c>
       <c r="CB17" t="n">
-        <v>6.414759263861924e-05</v>
+        <v>0.0001715529360808432</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0001797963486751541</v>
+        <v>0.004042143933475018</v>
       </c>
       <c r="CD17" t="n">
-        <v>9.961789328372106e-05</v>
+        <v>0.002016685903072357</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0006239826907403767</v>
+        <v>0.002192578511312604</v>
       </c>
       <c r="CF17" t="n">
-        <v>4.233732761349529e-05</v>
+        <v>0.007467273157089949</v>
       </c>
       <c r="CG17" t="n">
-        <v>2.271979610668495e-05</v>
+        <v>0.007999761961400509</v>
       </c>
       <c r="CH17" t="n">
-        <v>5.186357884667814e-05</v>
+        <v>0.008814679458737373</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0002649335656315088</v>
+        <v>0.00186417973600328</v>
       </c>
       <c r="CJ17" t="n">
-        <v>4.097146666026674e-05</v>
+        <v>0.000947197200730443</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.0002074722433462739</v>
+        <v>0.0004857349849771708</v>
       </c>
       <c r="CL17" t="n">
-        <v>5.046233491157182e-05</v>
+        <v>0.002561022527515888</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.0002088466426357627</v>
+        <v>0.0003640632494352758</v>
       </c>
       <c r="CN17" t="n">
-        <v>8.67023118189536e-05</v>
+        <v>0.007351938169449568</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0001607929880265146</v>
+        <v>0.002423223108053207</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.0001124581904150546</v>
+        <v>0.03200944885611534</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0004116078489460051</v>
+        <v>0.03149474784731865</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0002515626547392458</v>
+        <v>0.005909531377255917</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.0001879611081676558</v>
+        <v>0.0162998866289854</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0006183554069139063</v>
+        <v>0.002006105612963438</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.0005109298508614302</v>
+        <v>0.006170055363327265</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0002318370097782463</v>
+        <v>0.002805095165967941</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0004513869062066078</v>
+        <v>0.00083694834029302</v>
       </c>
       <c r="CX17" t="n">
-        <v>5.807988782180473e-05</v>
+        <v>0.007307462394237518</v>
       </c>
       <c r="CY17" t="n">
-        <v>6.589901749975979e-05</v>
+        <v>0.003365966491401196</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.000116073148092255</v>
+        <v>0.009069132618606091</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0003770499024540186</v>
+        <v>0.005127304699271917</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.750698538671713e-05</v>
+        <v>0.002358099911361933</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.0001741221349220723</v>
+        <v>0.0008459843811579049</v>
       </c>
       <c r="DD17" t="n">
-        <v>7.6370379247237e-06</v>
+        <v>0.004931782372295856</v>
       </c>
       <c r="DE17" t="n">
-        <v>4.291007644496858e-05</v>
+        <v>0.001779540674760938</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.001226389431394637</v>
+        <v>0.01234076917171478</v>
       </c>
       <c r="DG17" t="n">
-        <v>8.794473251327872e-05</v>
+        <v>0.007075993344187737</v>
       </c>
       <c r="DH17" t="n">
-        <v>5.804925967822783e-05</v>
+        <v>0.005452126264572144</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0007662749849259853</v>
+        <v>0.03519259765744209</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0003534834540914744</v>
+        <v>0.008428367786109447</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.0007166815339587629</v>
+        <v>0.01414991449564695</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0002334994787815958</v>
+        <v>0.0232841968536377</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.0001056764012901112</v>
+        <v>0.00948125496506691</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0002899868704844266</v>
+        <v>0.01007058657705784</v>
       </c>
       <c r="DO17" t="n">
-        <v>7.295882824109867e-05</v>
+        <v>0.006456479895859957</v>
       </c>
       <c r="DP17" t="n">
-        <v>9.675198816694319e-05</v>
+        <v>0.01376697141677141</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.0001032689106068574</v>
+        <v>0.02502709813416004</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0003484835324343294</v>
+        <v>0.01761998794972897</v>
       </c>
       <c r="DS17" t="n">
-        <v>6.876744009787217e-05</v>
+        <v>0.0009425271418876946</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.0001884586090454832</v>
+        <v>0.003581241006031632</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.000833587720990181</v>
+        <v>0.008996397256851196</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.000759085058234632</v>
+        <v>0.001334686297923326</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.0003836873511318117</v>
+        <v>0.002968584420159459</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0003447268099989742</v>
+        <v>0.007684271316975355</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0003209494170732796</v>
+        <v>0.006273928098380566</v>
       </c>
       <c r="DZ17" t="n">
-        <v>7.245929737109691e-05</v>
+        <v>0.001220782520249486</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.0004496963229030371</v>
+        <v>0.003512651892378926</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.0003996526647824794</v>
+        <v>0.01178785692900419</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.0002441999968141317</v>
+        <v>0.0112916836515069</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0001167474474641494</v>
+        <v>0.0172226894646883</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0008866764837875962</v>
+        <v>0.001450450043193996</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0001728154311422259</v>
+        <v>0.002384645398706198</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0005596727132797241</v>
+        <v>0.001804560655727983</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.0006549072568304837</v>
+        <v>0.001847232109867036</v>
       </c>
       <c r="EI17" t="n">
-        <v>6.280569505179301e-05</v>
+        <v>0.007626327220350504</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0003954682033509016</v>
+        <v>0.008515843190252781</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0001658903493080288</v>
+        <v>0.001963167684152722</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.0004283034650143236</v>
+        <v>0.004535346291959286</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.0003647508565336466</v>
+        <v>0.003875192254781723</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.0003631356812547892</v>
+        <v>0.004928899928927422</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.0001503853709436953</v>
+        <v>0.0005894743953831494</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.0002973576774820685</v>
+        <v>0.004094384610652924</v>
       </c>
       <c r="EQ17" t="n">
-        <v>3.451095835771412e-05</v>
+        <v>0.003815934527665377</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0005288059473969042</v>
+        <v>0.003594171954318881</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0004041909123770893</v>
+        <v>0.002907785354182124</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0003663835523184389</v>
+        <v>0.02003925479948521</v>
       </c>
       <c r="EU17" t="n">
-        <v>4.432593050296418e-05</v>
+        <v>0.004367796704173088</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.0001252173096872866</v>
+        <v>0.001595492009073496</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.0002619181468617171</v>
+        <v>0.001191878225654364</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0001269031781703234</v>
+        <v>0.003702521324157715</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0005499356193467975</v>
+        <v>0.001872071297839284</v>
       </c>
       <c r="EZ17" t="n">
-        <v>3.232278686482459e-05</v>
+        <v>0.007653862237930298</v>
       </c>
       <c r="FA17" t="n">
-        <v>4.120140874874778e-05</v>
+        <v>0.006249615922570229</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0001682171714492142</v>
+        <v>0.007100202608853579</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0004296352562960237</v>
+        <v>0.003118427470326424</v>
       </c>
       <c r="FD17" t="n">
-        <v>2.509169280529022e-05</v>
+        <v>0.0002948454348370433</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0001883363875094801</v>
+        <v>0.003595009446144104</v>
       </c>
       <c r="FF17" t="n">
-        <v>7.328083302127197e-05</v>
+        <v>0.002809168072417378</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.0005946874152868986</v>
+        <v>0.003726283088326454</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0002238952438347042</v>
+        <v>0.02121712081134319</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.0005622945609502494</v>
+        <v>0.008365153335034847</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0004428224929142743</v>
+        <v>0.0008451670873910189</v>
       </c>
       <c r="FK17" t="n">
-        <v>9.510276140645146e-05</v>
+        <v>0.007234991993755102</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001053448868333362</v>
+        <v>0.001730120275169611</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.0004407663072925061</v>
+        <v>0.009492751210927963</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.0003651987062767148</v>
+        <v>0.005629715044051409</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0002965432358905673</v>
+        <v>0.002147657098248601</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0001598642993485555</v>
+        <v>0.003625574987381697</v>
       </c>
       <c r="FQ17" t="n">
-        <v>7.576805364806205e-05</v>
+        <v>0.0155944311991334</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.0001549528969917446</v>
+        <v>0.005461765453219414</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0007683223229832947</v>
+        <v>0.01572473160922527</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.000186055272934027</v>
+        <v>0.02522667124867439</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0006347046582959592</v>
+        <v>0.003314519533887506</v>
       </c>
       <c r="FV17" t="n">
-        <v>1.929998688865453e-06</v>
+        <v>0.0154313500970602</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0001542781828902662</v>
+        <v>0.01088814344257116</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0001322073803748935</v>
+        <v>0.004651794675737619</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.0002888258313760161</v>
+        <v>0.01041767001152039</v>
       </c>
       <c r="FZ17" t="n">
-        <v>8.325730595970526e-05</v>
+        <v>0.003366722958162427</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.0001125804483308457</v>
+        <v>0.01280129700899124</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.000460653769550845</v>
+        <v>0.005668715573847294</v>
       </c>
       <c r="GC17" t="n">
-        <v>6.227645644685254e-05</v>
+        <v>0.03148693218827248</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0001568311272421852</v>
+        <v>0.008654342964291573</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0004347698413766921</v>
+        <v>0.004793319385498762</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0005460836691781878</v>
+        <v>0.005207810085266829</v>
       </c>
       <c r="GG17" t="n">
-        <v>7.851627742638811e-06</v>
+        <v>0.00327953090891242</v>
       </c>
     </row>
   </sheetData>
